--- a/docs/Governed Self-Service Settings.xlsx
+++ b/docs/Governed Self-Service Settings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14052" windowHeight="8100" tabRatio="766" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="4" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="Tags" sheetId="6" r:id="rId8"/>
     <sheet name="CustomProps" sheetId="5" r:id="rId9"/>
     <sheet name="SecRules" sheetId="9" r:id="rId10"/>
-    <sheet name="PowerTools" sheetId="11" r:id="rId11"/>
-    <sheet name="OtherLinks" sheetId="10" r:id="rId12"/>
+    <sheet name="LicenseTokens" sheetId="13" r:id="rId11"/>
+    <sheet name="PowerTools" sheetId="11" r:id="rId12"/>
+    <sheet name="OtherLinks" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="237">
   <si>
     <t>Developer</t>
   </si>
@@ -154,12 +155,6 @@
     <t>Template</t>
   </si>
   <si>
-    <t>_abc - Stream Rule - Apps Default Rule</t>
-  </si>
-  <si>
-    <t>_abc - Stream Rule - Apps Exception Rule</t>
-  </si>
-  <si>
     <t>The user should see apps with exception properties if they also have that exception property at the user level</t>
   </si>
   <si>
@@ -167,9 +162,6 @@
   </si>
   <si>
     <t>unspecified</t>
-  </si>
-  <si>
-    <t>_abc - Group Access Rule</t>
   </si>
   <si>
     <t>Allows access to read for all resources matching the user's security group value</t>
@@ -435,9 +427,6 @@
     <t>This section to be complete in May, 2016</t>
   </si>
   <si>
-    <t>_abc - Root Admin Group Rule</t>
-  </si>
-  <si>
     <t>This grants all access to anyone with an AD group of "QlikRootAdmin"</t>
   </si>
   <si>
@@ -462,9 +451,6 @@
     <t>DataConnection_*</t>
   </si>
   <si>
-    <t>_abc - DataConnection Read</t>
-  </si>
-  <si>
     <t>Data Connection Types</t>
   </si>
   <si>
@@ -486,9 +472,6 @@
     <t>((user.group="QlikRootAdmin" or user.roles="RootAdmin"))</t>
   </si>
   <si>
-    <t>_abc - Create App</t>
-  </si>
-  <si>
     <t>Allows Developers and Designers to create and publish apps/sheets</t>
   </si>
   <si>
@@ -501,9 +484,6 @@
     <t xml:space="preserve">This is a new custom security rule that only allows some roles to create apps.  </t>
   </si>
   <si>
-    <t>_abc - CreateAppObjectsPublishedApp</t>
-  </si>
-  <si>
     <t>You should be able to create app objects of all types on a published app, except for Consumers, who can not create sheets.</t>
   </si>
   <si>
@@ -519,9 +499,6 @@
     <t>This new rule allows for sheet creation by everyone but Consumers</t>
   </si>
   <si>
-    <t>_abc - DataConnection Create</t>
-  </si>
-  <si>
     <t>Allows certain roles to create data connections</t>
   </si>
   <si>
@@ -555,9 +532,6 @@
     <t>App*, Stream*</t>
   </si>
   <si>
-    <t>_abc - Publishing Rights by Role</t>
-  </si>
-  <si>
     <t>This rule allows Contributors, Designers and Developers to publish to streams.  The stream rule will cover which streams they have access to.  And other rules govern which object types they can publish.</t>
   </si>
   <si>
@@ -597,9 +571,6 @@
     <t>New rule accounting for exception apps in a stream.</t>
   </si>
   <si>
-    <t>_abc - TeamAdmin QMC Sections</t>
-  </si>
-  <si>
     <t>Users in this AD group have the same rights as people in the Qlik Role "QlikTeamAdmin"</t>
   </si>
   <si>
@@ -612,9 +583,6 @@
     <t>New rule that controls the QMC Sections a person can access if they are in the QlikTeamAdmin role</t>
   </si>
   <si>
-    <t>_abc - TeamAdmin Read Rights</t>
-  </si>
-  <si>
     <t>This rule grants rights to resources for Team Admins.   It has to be sperate from the QMCSections rule for Team Admins, as they operate on different resources.</t>
   </si>
   <si>
@@ -675,9 +643,6 @@
     <t>(resource.resourcetype = "App" and resource.stream.HasPrivilege("read")) or ((resource.resourcetype = "App.Object" and resource.published ="true" and resource.objectType != "app_appscript" and resource.objectType != "loadmodel") and resource.app.stream.HasPrivilege("read"))</t>
   </si>
   <si>
-    <t>_abc - User Access Token Rule</t>
-  </si>
-  <si>
     <t>Rule to set up automatic user access</t>
   </si>
   <si>
@@ -690,9 +655,6 @@
     <t>this is set for you</t>
   </si>
   <si>
-    <t>_abc - Login Access Token Rule</t>
-  </si>
-  <si>
     <t>Login Access Rule</t>
   </si>
   <si>
@@ -747,9 +709,6 @@
     <t>New rule allowing the creation of tasks, tags and custom properties by QlikTeamAdmin users</t>
   </si>
   <si>
-    <t>_abc - TeamAdmin Create Rights</t>
-  </si>
-  <si>
     <t xml:space="preserve">If you are a TeamAdmin, you should be able to create Tasks, Tags and Custom Properties in the QMC.   The "read" version of this rule will already limit you to creating these things on objects in your group designation only.  </t>
   </si>
   <si>
@@ -757,6 +716,51 @@
   </si>
   <si>
     <t>Task*, ReloadTask*, Tag*, CustomProperty*</t>
+  </si>
+  <si>
+    <t>_gss - Create App</t>
+  </si>
+  <si>
+    <t>_gss - CreateAppObjectsPublishedApp</t>
+  </si>
+  <si>
+    <t>_gss - DataConnection Create</t>
+  </si>
+  <si>
+    <t>_gss - DataConnection Read</t>
+  </si>
+  <si>
+    <t>_gss - Group Access Rule</t>
+  </si>
+  <si>
+    <t>_gss - Publishing Rights by Role</t>
+  </si>
+  <si>
+    <t>_gss - Root Admin Group Rule</t>
+  </si>
+  <si>
+    <t>_gss - Stream Rule - Apps Default Rule</t>
+  </si>
+  <si>
+    <t>_gss - Stream Rule - Apps Exception Rule</t>
+  </si>
+  <si>
+    <t>_gss - TeamAdmin QMC Sections</t>
+  </si>
+  <si>
+    <t>_gss - TeamAdmin Read Rights</t>
+  </si>
+  <si>
+    <t>_gss - TeamAdmin Create Rights</t>
+  </si>
+  <si>
+    <t>_gss - User Access Token Rule</t>
+  </si>
+  <si>
+    <t>_gss - Login Access Token Rule</t>
+  </si>
+  <si>
+    <t>License and Token Rules</t>
   </si>
 </sst>
 </file>
@@ -1202,18 +1206,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1232,30 +1224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1273,6 +1244,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,6 +1547,99 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1524000" cy="1117600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>643467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7787640" y="99061"/>
+          <a:ext cx="1743075" cy="544406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1095089</xdr:rowOff>
     </xdr:to>
@@ -1624,7 +1721,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11928,11 +12025,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U261"/>
+  <dimension ref="A1:U236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X164" sqref="X164"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11944,7 +12041,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="88.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I1" s="14" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11954,7 +12051,7 @@
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -11979,42 +12076,42 @@
       <c r="C4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
+      <c r="E4" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="58"/>
       <c r="Q4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="73"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="67"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
+      <c r="E5" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -12023,24 +12120,24 @@
       <c r="C6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="52"/>
+      <c r="E6" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
     </row>
     <row r="7" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="10"/>
@@ -12079,18 +12176,18 @@
       </c>
       <c r="J8" s="6"/>
       <c r="L8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="70"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E9" s="9"/>
@@ -12105,69 +12202,69 @@
         <v>27</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="58"/>
       <c r="Q11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="S11" s="51"/>
-      <c r="T11" s="52"/>
+      <c r="R11" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58"/>
     </row>
     <row r="12" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
+      <c r="E13" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="52"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="61"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="55"/>
     </row>
     <row r="15" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -12176,7 +12273,7 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -12201,27 +12298,27 @@
       <c r="C17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
+      <c r="E17" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="58"/>
       <c r="Q17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="71" t="s">
+      <c r="R17" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="72"/>
-      <c r="T17" s="73"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="67"/>
     </row>
     <row r="18" spans="1:21" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="10"/>
@@ -12241,24 +12338,24 @@
       <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="52"/>
+      <c r="E19" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="10"/>
@@ -12297,18 +12394,18 @@
       </c>
       <c r="J21" s="6"/>
       <c r="L21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M21" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="70"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E22" s="9"/>
@@ -12323,69 +12420,69 @@
         <v>27</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="E24" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="58"/>
       <c r="Q24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R24" s="50" t="s">
+      <c r="R24" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="S24" s="51"/>
-      <c r="T24" s="52"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="58"/>
     </row>
     <row r="25" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="76"/>
+      <c r="E26" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="61"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="79"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="64"/>
     </row>
     <row r="28" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -12394,7 +12491,7 @@
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="16" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -12419,42 +12516,42 @@
       <c r="C30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="52"/>
+      <c r="E30" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="58"/>
       <c r="Q30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R30" s="71" t="s">
+      <c r="R30" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S30" s="72"/>
-      <c r="T30" s="73"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="67"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
+      <c r="E31" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="58"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
@@ -12463,24 +12560,24 @@
       <c r="C32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="52"/>
+      <c r="E32" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="58"/>
     </row>
     <row r="33" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="10"/>
@@ -12519,18 +12616,18 @@
       </c>
       <c r="J34" s="6"/>
       <c r="L34" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M34" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M34" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="70"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E35" s="9"/>
@@ -12545,69 +12642,69 @@
         <v>27</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="52"/>
+      <c r="E37" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="58"/>
       <c r="Q37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R37" s="50" t="s">
+      <c r="R37" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="S37" s="51"/>
-      <c r="T37" s="52"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="58"/>
     </row>
     <row r="38" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="76"/>
+      <c r="E39" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="61"/>
     </row>
     <row r="40" spans="1:21" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="77"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="78"/>
-      <c r="T40" s="79"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="64"/>
     </row>
     <row r="41" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -12616,7 +12713,7 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -12641,42 +12738,42 @@
       <c r="C43" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="52"/>
+      <c r="E43" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="58"/>
       <c r="Q43" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R43" s="71" t="s">
+      <c r="R43" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S43" s="72"/>
-      <c r="T43" s="73"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="67"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="52"/>
+      <c r="E44" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="58"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
@@ -12685,24 +12782,24 @@
       <c r="C45" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="52"/>
+      <c r="E45" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="58"/>
     </row>
     <row r="46" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="10"/>
@@ -12741,18 +12838,18 @@
       </c>
       <c r="J47" s="6"/>
       <c r="L47" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M47" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="66"/>
-      <c r="Q47" s="66"/>
-      <c r="R47" s="66"/>
-      <c r="S47" s="66"/>
-      <c r="T47" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M47" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="70"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E48" s="7"/>
@@ -12767,69 +12864,69 @@
         <v>27</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="52"/>
+      <c r="E50" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="58"/>
       <c r="Q50" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R50" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="S50" s="51"/>
-      <c r="T50" s="52"/>
+      <c r="R50" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S50" s="57"/>
+      <c r="T50" s="58"/>
     </row>
     <row r="51" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="58"/>
+      <c r="E52" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="52"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E53" s="59"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="61"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="55"/>
     </row>
     <row r="54" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -12838,7 +12935,7 @@
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -12863,42 +12960,42 @@
       <c r="C56" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="51"/>
-      <c r="O56" s="52"/>
+      <c r="E56" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="58"/>
       <c r="Q56" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R56" s="71" t="s">
+      <c r="R56" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S56" s="72"/>
-      <c r="T56" s="73"/>
+      <c r="S56" s="66"/>
+      <c r="T56" s="67"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C57" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="52"/>
+      <c r="E57" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="58"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
@@ -12907,24 +13004,24 @@
       <c r="C58" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="52"/>
+      <c r="E58" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="57"/>
+      <c r="T58" s="58"/>
     </row>
     <row r="59" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="10"/>
@@ -12963,18 +13060,18 @@
       </c>
       <c r="J60" s="6"/>
       <c r="L60" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M60" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M60" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="69"/>
+      <c r="S60" s="69"/>
+      <c r="T60" s="70"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E61" s="7"/>
@@ -12989,69 +13086,69 @@
         <v>27</v>
       </c>
       <c r="D63" s="10"/>
-      <c r="E63" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="52"/>
+      <c r="E63" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="58"/>
       <c r="Q63" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R63" s="50" t="s">
+      <c r="R63" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="S63" s="51"/>
-      <c r="T63" s="52"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="58"/>
     </row>
     <row r="64" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="57"/>
-      <c r="S65" s="57"/>
-      <c r="T65" s="58"/>
+      <c r="E65" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="52"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E66" s="59"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="60"/>
-      <c r="P66" s="60"/>
-      <c r="Q66" s="60"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="60"/>
-      <c r="T66" s="61"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="55"/>
     </row>
     <row r="67" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -13060,7 +13157,7 @@
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="16" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -13085,42 +13182,42 @@
       <c r="C69" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="52"/>
+      <c r="E69" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="58"/>
       <c r="Q69" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R69" s="71" t="s">
+      <c r="R69" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S69" s="72"/>
-      <c r="T69" s="73"/>
+      <c r="S69" s="66"/>
+      <c r="T69" s="67"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C70" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="52"/>
+      <c r="E70" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="58"/>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
@@ -13129,24 +13226,24 @@
       <c r="C71" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E71" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="51"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="51"/>
-      <c r="O71" s="51"/>
-      <c r="P71" s="51"/>
-      <c r="Q71" s="51"/>
-      <c r="R71" s="51"/>
-      <c r="S71" s="51"/>
-      <c r="T71" s="52"/>
+      <c r="E71" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="57"/>
+      <c r="S71" s="57"/>
+      <c r="T71" s="58"/>
     </row>
     <row r="72" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="10"/>
@@ -13185,18 +13282,18 @@
       </c>
       <c r="J73" s="6"/>
       <c r="L73" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M73" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="N73" s="66"/>
-      <c r="O73" s="66"/>
-      <c r="P73" s="66"/>
-      <c r="Q73" s="66"/>
-      <c r="R73" s="66"/>
-      <c r="S73" s="66"/>
-      <c r="T73" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M73" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="69"/>
+      <c r="S73" s="69"/>
+      <c r="T73" s="70"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E74" s="7"/>
@@ -13211,69 +13308,69 @@
         <v>27</v>
       </c>
       <c r="D76" s="10"/>
-      <c r="E76" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="51"/>
-      <c r="O76" s="52"/>
+      <c r="E76" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="58"/>
       <c r="Q76" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R76" s="50" t="s">
+      <c r="R76" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="S76" s="51"/>
-      <c r="T76" s="52"/>
+      <c r="S76" s="57"/>
+      <c r="T76" s="58"/>
     </row>
     <row r="77" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>28</v>
       </c>
-      <c r="E78" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="57"/>
-      <c r="S78" s="57"/>
-      <c r="T78" s="58"/>
+      <c r="E78" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="51"/>
+      <c r="S78" s="51"/>
+      <c r="T78" s="52"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E79" s="59"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="60"/>
-      <c r="O79" s="60"/>
-      <c r="P79" s="60"/>
-      <c r="Q79" s="60"/>
-      <c r="R79" s="60"/>
-      <c r="S79" s="60"/>
-      <c r="T79" s="61"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
+      <c r="O79" s="54"/>
+      <c r="P79" s="54"/>
+      <c r="Q79" s="54"/>
+      <c r="R79" s="54"/>
+      <c r="S79" s="54"/>
+      <c r="T79" s="55"/>
     </row>
     <row r="80" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -13282,7 +13379,7 @@
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -13307,42 +13404,42 @@
       <c r="C82" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E82" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="51"/>
-      <c r="J82" s="51"/>
-      <c r="K82" s="51"/>
-      <c r="L82" s="51"/>
-      <c r="M82" s="51"/>
-      <c r="N82" s="51"/>
-      <c r="O82" s="52"/>
+      <c r="E82" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="58"/>
       <c r="Q82" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R82" s="71" t="s">
+      <c r="R82" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S82" s="72"/>
-      <c r="T82" s="73"/>
+      <c r="S82" s="66"/>
+      <c r="T82" s="67"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C83" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="51"/>
-      <c r="J83" s="51"/>
-      <c r="K83" s="51"/>
-      <c r="L83" s="52"/>
+      <c r="E83" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="57"/>
+      <c r="L83" s="58"/>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
@@ -13351,24 +13448,24 @@
       <c r="C84" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="51"/>
-      <c r="O84" s="51"/>
-      <c r="P84" s="51"/>
-      <c r="Q84" s="51"/>
-      <c r="R84" s="51"/>
-      <c r="S84" s="51"/>
-      <c r="T84" s="52"/>
+      <c r="E84" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="57"/>
+      <c r="S84" s="57"/>
+      <c r="T84" s="58"/>
     </row>
     <row r="85" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="10"/>
@@ -13406,21 +13503,21 @@
         <v>25</v>
       </c>
       <c r="J86" s="35" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M86" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="N86" s="66"/>
-      <c r="O86" s="66"/>
-      <c r="P86" s="66"/>
-      <c r="Q86" s="66"/>
-      <c r="R86" s="66"/>
-      <c r="S86" s="66"/>
-      <c r="T86" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M86" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="N86" s="69"/>
+      <c r="O86" s="69"/>
+      <c r="P86" s="69"/>
+      <c r="Q86" s="69"/>
+      <c r="R86" s="69"/>
+      <c r="S86" s="69"/>
+      <c r="T86" s="70"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E87" s="9"/>
@@ -13436,69 +13533,69 @@
         <v>27</v>
       </c>
       <c r="D89" s="10"/>
-      <c r="E89" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="F89" s="51"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="51"/>
-      <c r="I89" s="51"/>
-      <c r="J89" s="51"/>
-      <c r="K89" s="51"/>
-      <c r="L89" s="51"/>
-      <c r="M89" s="51"/>
-      <c r="N89" s="51"/>
-      <c r="O89" s="52"/>
+      <c r="E89" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="57"/>
+      <c r="L89" s="57"/>
+      <c r="M89" s="57"/>
+      <c r="N89" s="57"/>
+      <c r="O89" s="58"/>
       <c r="Q89" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R89" s="50" t="s">
+      <c r="R89" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="S89" s="51"/>
-      <c r="T89" s="52"/>
+      <c r="S89" s="57"/>
+      <c r="T89" s="58"/>
     </row>
     <row r="90" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>28</v>
       </c>
-      <c r="E91" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
-      <c r="J91" s="57"/>
-      <c r="K91" s="57"/>
-      <c r="L91" s="57"/>
-      <c r="M91" s="57"/>
-      <c r="N91" s="57"/>
-      <c r="O91" s="57"/>
-      <c r="P91" s="57"/>
-      <c r="Q91" s="57"/>
-      <c r="R91" s="57"/>
-      <c r="S91" s="57"/>
-      <c r="T91" s="58"/>
+      <c r="E91" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="51"/>
+      <c r="O91" s="51"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="51"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="51"/>
+      <c r="T91" s="52"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E92" s="59"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="60"/>
-      <c r="N92" s="60"/>
-      <c r="O92" s="60"/>
-      <c r="P92" s="60"/>
-      <c r="Q92" s="60"/>
-      <c r="R92" s="60"/>
-      <c r="S92" s="60"/>
-      <c r="T92" s="61"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="54"/>
+      <c r="M92" s="54"/>
+      <c r="N92" s="54"/>
+      <c r="O92" s="54"/>
+      <c r="P92" s="54"/>
+      <c r="Q92" s="54"/>
+      <c r="R92" s="54"/>
+      <c r="S92" s="54"/>
+      <c r="T92" s="55"/>
     </row>
     <row r="93" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -13507,7 +13604,7 @@
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="16" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
@@ -13532,42 +13629,42 @@
       <c r="C95" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E95" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F95" s="51"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="51"/>
-      <c r="J95" s="51"/>
-      <c r="K95" s="51"/>
-      <c r="L95" s="51"/>
-      <c r="M95" s="51"/>
-      <c r="N95" s="51"/>
-      <c r="O95" s="52"/>
+      <c r="E95" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="57"/>
+      <c r="L95" s="57"/>
+      <c r="M95" s="57"/>
+      <c r="N95" s="57"/>
+      <c r="O95" s="58"/>
       <c r="Q95" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R95" s="71" t="s">
+      <c r="R95" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S95" s="72"/>
-      <c r="T95" s="73"/>
+      <c r="S95" s="66"/>
+      <c r="T95" s="67"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C96" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E96" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="52"/>
+      <c r="E96" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
+      <c r="L96" s="58"/>
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
@@ -13576,24 +13673,24 @@
       <c r="C97" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E97" s="50" t="s">
+      <c r="E97" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-      <c r="J97" s="51"/>
-      <c r="K97" s="51"/>
-      <c r="L97" s="51"/>
-      <c r="M97" s="51"/>
-      <c r="N97" s="51"/>
-      <c r="O97" s="51"/>
-      <c r="P97" s="51"/>
-      <c r="Q97" s="51"/>
-      <c r="R97" s="51"/>
-      <c r="S97" s="51"/>
-      <c r="T97" s="52"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="57"/>
+      <c r="K97" s="57"/>
+      <c r="L97" s="57"/>
+      <c r="M97" s="57"/>
+      <c r="N97" s="57"/>
+      <c r="O97" s="57"/>
+      <c r="P97" s="57"/>
+      <c r="Q97" s="57"/>
+      <c r="R97" s="57"/>
+      <c r="S97" s="57"/>
+      <c r="T97" s="58"/>
     </row>
     <row r="98" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="10"/>
@@ -13632,18 +13729,18 @@
       </c>
       <c r="J99" s="6"/>
       <c r="L99" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M99" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="N99" s="66"/>
-      <c r="O99" s="66"/>
-      <c r="P99" s="66"/>
-      <c r="Q99" s="66"/>
-      <c r="R99" s="66"/>
-      <c r="S99" s="66"/>
-      <c r="T99" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M99" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
+      <c r="S99" s="69"/>
+      <c r="T99" s="70"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E100" s="17"/>
@@ -13658,69 +13755,69 @@
         <v>27</v>
       </c>
       <c r="D102" s="10"/>
-      <c r="E102" s="50" t="s">
+      <c r="E102" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="51"/>
-      <c r="O102" s="52"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="57"/>
+      <c r="J102" s="57"/>
+      <c r="K102" s="57"/>
+      <c r="L102" s="57"/>
+      <c r="M102" s="57"/>
+      <c r="N102" s="57"/>
+      <c r="O102" s="58"/>
       <c r="Q102" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R102" s="50" t="s">
+      <c r="R102" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="S102" s="51"/>
-      <c r="T102" s="52"/>
+      <c r="S102" s="57"/>
+      <c r="T102" s="58"/>
     </row>
     <row r="103" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>28</v>
       </c>
-      <c r="E104" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57"/>
-      <c r="J104" s="57"/>
-      <c r="K104" s="57"/>
-      <c r="L104" s="57"/>
-      <c r="M104" s="57"/>
-      <c r="N104" s="57"/>
-      <c r="O104" s="57"/>
-      <c r="P104" s="57"/>
-      <c r="Q104" s="57"/>
-      <c r="R104" s="57"/>
-      <c r="S104" s="57"/>
-      <c r="T104" s="58"/>
+      <c r="E104" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="52"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E105" s="59"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="60"/>
-      <c r="N105" s="60"/>
-      <c r="O105" s="60"/>
-      <c r="P105" s="60"/>
-      <c r="Q105" s="60"/>
-      <c r="R105" s="60"/>
-      <c r="S105" s="60"/>
-      <c r="T105" s="61"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="54"/>
+      <c r="M105" s="54"/>
+      <c r="N105" s="54"/>
+      <c r="O105" s="54"/>
+      <c r="P105" s="54"/>
+      <c r="Q105" s="54"/>
+      <c r="R105" s="54"/>
+      <c r="S105" s="54"/>
+      <c r="T105" s="55"/>
     </row>
     <row r="106" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -13729,7 +13826,7 @@
       </c>
       <c r="B107" s="15"/>
       <c r="C107" s="16" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -13754,42 +13851,42 @@
       <c r="C108" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E108" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F108" s="51"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="51"/>
-      <c r="J108" s="51"/>
-      <c r="K108" s="51"/>
-      <c r="L108" s="51"/>
-      <c r="M108" s="51"/>
-      <c r="N108" s="51"/>
-      <c r="O108" s="52"/>
+      <c r="E108" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="57"/>
+      <c r="L108" s="57"/>
+      <c r="M108" s="57"/>
+      <c r="N108" s="57"/>
+      <c r="O108" s="58"/>
       <c r="Q108" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R108" s="71" t="s">
+      <c r="R108" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S108" s="72"/>
-      <c r="T108" s="73"/>
+      <c r="S108" s="66"/>
+      <c r="T108" s="67"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C109" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E109" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F109" s="51"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="51"/>
-      <c r="J109" s="51"/>
-      <c r="K109" s="51"/>
-      <c r="L109" s="52"/>
+      <c r="E109" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F109" s="57"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="57"/>
+      <c r="J109" s="57"/>
+      <c r="K109" s="57"/>
+      <c r="L109" s="58"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
@@ -13798,24 +13895,24 @@
       <c r="C110" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E110" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="51"/>
-      <c r="M110" s="51"/>
-      <c r="N110" s="51"/>
-      <c r="O110" s="51"/>
-      <c r="P110" s="51"/>
-      <c r="Q110" s="51"/>
-      <c r="R110" s="51"/>
-      <c r="S110" s="51"/>
-      <c r="T110" s="52"/>
+      <c r="E110" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="57"/>
+      <c r="G110" s="57"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="57"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="57"/>
+      <c r="L110" s="57"/>
+      <c r="M110" s="57"/>
+      <c r="N110" s="57"/>
+      <c r="O110" s="57"/>
+      <c r="P110" s="57"/>
+      <c r="Q110" s="57"/>
+      <c r="R110" s="57"/>
+      <c r="S110" s="57"/>
+      <c r="T110" s="58"/>
     </row>
     <row r="111" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="10"/>
@@ -13854,18 +13951,18 @@
       </c>
       <c r="J112" s="6"/>
       <c r="L112" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M112" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="N112" s="66"/>
-      <c r="O112" s="66"/>
-      <c r="P112" s="66"/>
-      <c r="Q112" s="66"/>
-      <c r="R112" s="66"/>
-      <c r="S112" s="66"/>
-      <c r="T112" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M112" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="N112" s="69"/>
+      <c r="O112" s="69"/>
+      <c r="P112" s="69"/>
+      <c r="Q112" s="69"/>
+      <c r="R112" s="69"/>
+      <c r="S112" s="69"/>
+      <c r="T112" s="70"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E113" s="17"/>
@@ -13880,69 +13977,69 @@
         <v>27</v>
       </c>
       <c r="D115" s="10"/>
-      <c r="E115" s="50" t="s">
+      <c r="E115" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F115" s="51"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="51"/>
-      <c r="J115" s="51"/>
-      <c r="K115" s="51"/>
-      <c r="L115" s="51"/>
-      <c r="M115" s="51"/>
-      <c r="N115" s="51"/>
-      <c r="O115" s="52"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="57"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="57"/>
+      <c r="J115" s="57"/>
+      <c r="K115" s="57"/>
+      <c r="L115" s="57"/>
+      <c r="M115" s="57"/>
+      <c r="N115" s="57"/>
+      <c r="O115" s="58"/>
       <c r="Q115" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R115" s="50" t="s">
+      <c r="R115" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="S115" s="51"/>
-      <c r="T115" s="52"/>
+      <c r="S115" s="57"/>
+      <c r="T115" s="58"/>
     </row>
     <row r="116" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>28</v>
       </c>
-      <c r="E117" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="57"/>
-      <c r="J117" s="57"/>
-      <c r="K117" s="57"/>
-      <c r="L117" s="57"/>
-      <c r="M117" s="57"/>
-      <c r="N117" s="57"/>
-      <c r="O117" s="57"/>
-      <c r="P117" s="57"/>
-      <c r="Q117" s="57"/>
-      <c r="R117" s="57"/>
-      <c r="S117" s="57"/>
-      <c r="T117" s="58"/>
+      <c r="E117" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="51"/>
+      <c r="J117" s="51"/>
+      <c r="K117" s="51"/>
+      <c r="L117" s="51"/>
+      <c r="M117" s="51"/>
+      <c r="N117" s="51"/>
+      <c r="O117" s="51"/>
+      <c r="P117" s="51"/>
+      <c r="Q117" s="51"/>
+      <c r="R117" s="51"/>
+      <c r="S117" s="51"/>
+      <c r="T117" s="52"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E118" s="59"/>
-      <c r="F118" s="60"/>
-      <c r="G118" s="60"/>
-      <c r="H118" s="60"/>
-      <c r="I118" s="60"/>
-      <c r="J118" s="60"/>
-      <c r="K118" s="60"/>
-      <c r="L118" s="60"/>
-      <c r="M118" s="60"/>
-      <c r="N118" s="60"/>
-      <c r="O118" s="60"/>
-      <c r="P118" s="60"/>
-      <c r="Q118" s="60"/>
-      <c r="R118" s="60"/>
-      <c r="S118" s="60"/>
-      <c r="T118" s="61"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="54"/>
+      <c r="L118" s="54"/>
+      <c r="M118" s="54"/>
+      <c r="N118" s="54"/>
+      <c r="O118" s="54"/>
+      <c r="P118" s="54"/>
+      <c r="Q118" s="54"/>
+      <c r="R118" s="54"/>
+      <c r="S118" s="54"/>
+      <c r="T118" s="55"/>
     </row>
     <row r="119" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -13951,7 +14048,7 @@
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="16" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
@@ -13976,42 +14073,42 @@
       <c r="C121" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E121" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="F121" s="51"/>
-      <c r="G121" s="51"/>
-      <c r="H121" s="51"/>
-      <c r="I121" s="51"/>
-      <c r="J121" s="51"/>
-      <c r="K121" s="51"/>
-      <c r="L121" s="51"/>
-      <c r="M121" s="51"/>
-      <c r="N121" s="51"/>
-      <c r="O121" s="52"/>
+      <c r="E121" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
+      <c r="L121" s="57"/>
+      <c r="M121" s="57"/>
+      <c r="N121" s="57"/>
+      <c r="O121" s="58"/>
       <c r="Q121" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R121" s="71" t="s">
+      <c r="R121" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S121" s="72"/>
-      <c r="T121" s="73"/>
+      <c r="S121" s="66"/>
+      <c r="T121" s="67"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C122" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E122" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F122" s="51"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51"/>
-      <c r="J122" s="51"/>
-      <c r="K122" s="51"/>
-      <c r="L122" s="52"/>
+      <c r="E122" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F122" s="57"/>
+      <c r="G122" s="57"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="57"/>
+      <c r="J122" s="57"/>
+      <c r="K122" s="57"/>
+      <c r="L122" s="58"/>
       <c r="M122" s="11"/>
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
@@ -14020,24 +14117,24 @@
       <c r="C123" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E123" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="F123" s="51"/>
-      <c r="G123" s="51"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51"/>
-      <c r="J123" s="51"/>
-      <c r="K123" s="51"/>
-      <c r="L123" s="51"/>
-      <c r="M123" s="51"/>
-      <c r="N123" s="51"/>
-      <c r="O123" s="51"/>
-      <c r="P123" s="51"/>
-      <c r="Q123" s="51"/>
-      <c r="R123" s="51"/>
-      <c r="S123" s="51"/>
-      <c r="T123" s="52"/>
+      <c r="E123" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="57"/>
+      <c r="L123" s="57"/>
+      <c r="M123" s="57"/>
+      <c r="N123" s="57"/>
+      <c r="O123" s="57"/>
+      <c r="P123" s="57"/>
+      <c r="Q123" s="57"/>
+      <c r="R123" s="57"/>
+      <c r="S123" s="57"/>
+      <c r="T123" s="58"/>
     </row>
     <row r="124" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="10"/>
@@ -14076,18 +14173,18 @@
       </c>
       <c r="J125" s="6"/>
       <c r="L125" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M125" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="N125" s="66"/>
-      <c r="O125" s="66"/>
-      <c r="P125" s="66"/>
-      <c r="Q125" s="66"/>
-      <c r="R125" s="66"/>
-      <c r="S125" s="66"/>
-      <c r="T125" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M125" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="N125" s="69"/>
+      <c r="O125" s="69"/>
+      <c r="P125" s="69"/>
+      <c r="Q125" s="69"/>
+      <c r="R125" s="69"/>
+      <c r="S125" s="69"/>
+      <c r="T125" s="70"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E126" s="17"/>
@@ -14102,69 +14199,69 @@
         <v>27</v>
       </c>
       <c r="D128" s="10"/>
-      <c r="E128" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="F128" s="51"/>
-      <c r="G128" s="51"/>
-      <c r="H128" s="51"/>
-      <c r="I128" s="51"/>
-      <c r="J128" s="51"/>
-      <c r="K128" s="51"/>
-      <c r="L128" s="51"/>
-      <c r="M128" s="51"/>
-      <c r="N128" s="51"/>
-      <c r="O128" s="52"/>
+      <c r="E128" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="F128" s="57"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="57"/>
+      <c r="J128" s="57"/>
+      <c r="K128" s="57"/>
+      <c r="L128" s="57"/>
+      <c r="M128" s="57"/>
+      <c r="N128" s="57"/>
+      <c r="O128" s="58"/>
       <c r="Q128" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R128" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="S128" s="51"/>
-      <c r="T128" s="52"/>
+      <c r="R128" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="S128" s="57"/>
+      <c r="T128" s="58"/>
     </row>
     <row r="129" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>28</v>
       </c>
-      <c r="E130" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="F130" s="57"/>
-      <c r="G130" s="57"/>
-      <c r="H130" s="57"/>
-      <c r="I130" s="57"/>
-      <c r="J130" s="57"/>
-      <c r="K130" s="57"/>
-      <c r="L130" s="57"/>
-      <c r="M130" s="57"/>
-      <c r="N130" s="57"/>
-      <c r="O130" s="57"/>
-      <c r="P130" s="57"/>
-      <c r="Q130" s="57"/>
-      <c r="R130" s="57"/>
-      <c r="S130" s="57"/>
-      <c r="T130" s="58"/>
+      <c r="E130" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F130" s="51"/>
+      <c r="G130" s="51"/>
+      <c r="H130" s="51"/>
+      <c r="I130" s="51"/>
+      <c r="J130" s="51"/>
+      <c r="K130" s="51"/>
+      <c r="L130" s="51"/>
+      <c r="M130" s="51"/>
+      <c r="N130" s="51"/>
+      <c r="O130" s="51"/>
+      <c r="P130" s="51"/>
+      <c r="Q130" s="51"/>
+      <c r="R130" s="51"/>
+      <c r="S130" s="51"/>
+      <c r="T130" s="52"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E131" s="59"/>
-      <c r="F131" s="60"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="60"/>
-      <c r="I131" s="60"/>
-      <c r="J131" s="60"/>
-      <c r="K131" s="60"/>
-      <c r="L131" s="60"/>
-      <c r="M131" s="60"/>
-      <c r="N131" s="60"/>
-      <c r="O131" s="60"/>
-      <c r="P131" s="60"/>
-      <c r="Q131" s="60"/>
-      <c r="R131" s="60"/>
-      <c r="S131" s="60"/>
-      <c r="T131" s="61"/>
+      <c r="E131" s="53"/>
+      <c r="F131" s="54"/>
+      <c r="G131" s="54"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="54"/>
+      <c r="J131" s="54"/>
+      <c r="K131" s="54"/>
+      <c r="L131" s="54"/>
+      <c r="M131" s="54"/>
+      <c r="N131" s="54"/>
+      <c r="O131" s="54"/>
+      <c r="P131" s="54"/>
+      <c r="Q131" s="54"/>
+      <c r="R131" s="54"/>
+      <c r="S131" s="54"/>
+      <c r="T131" s="55"/>
     </row>
     <row r="132" spans="1:21" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -14173,7 +14270,7 @@
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="16" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
@@ -14198,42 +14295,42 @@
       <c r="C134" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E134" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="F134" s="51"/>
-      <c r="G134" s="51"/>
-      <c r="H134" s="51"/>
-      <c r="I134" s="51"/>
-      <c r="J134" s="51"/>
-      <c r="K134" s="51"/>
-      <c r="L134" s="51"/>
-      <c r="M134" s="51"/>
-      <c r="N134" s="51"/>
-      <c r="O134" s="52"/>
+      <c r="E134" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F134" s="57"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="57"/>
+      <c r="K134" s="57"/>
+      <c r="L134" s="57"/>
+      <c r="M134" s="57"/>
+      <c r="N134" s="57"/>
+      <c r="O134" s="58"/>
       <c r="Q134" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R134" s="71" t="s">
+      <c r="R134" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S134" s="72"/>
-      <c r="T134" s="73"/>
+      <c r="S134" s="66"/>
+      <c r="T134" s="67"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C135" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E135" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="51"/>
-      <c r="G135" s="51"/>
-      <c r="H135" s="51"/>
-      <c r="I135" s="51"/>
-      <c r="J135" s="51"/>
-      <c r="K135" s="51"/>
-      <c r="L135" s="52"/>
+      <c r="E135" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F135" s="57"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="57"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="57"/>
+      <c r="K135" s="57"/>
+      <c r="L135" s="58"/>
       <c r="M135" s="11"/>
       <c r="N135" s="11"/>
       <c r="O135" s="11"/>
@@ -14242,24 +14339,24 @@
       <c r="C136" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E136" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="F136" s="51"/>
-      <c r="G136" s="51"/>
-      <c r="H136" s="51"/>
-      <c r="I136" s="51"/>
-      <c r="J136" s="51"/>
-      <c r="K136" s="51"/>
-      <c r="L136" s="51"/>
-      <c r="M136" s="51"/>
-      <c r="N136" s="51"/>
-      <c r="O136" s="51"/>
-      <c r="P136" s="51"/>
-      <c r="Q136" s="51"/>
-      <c r="R136" s="51"/>
-      <c r="S136" s="51"/>
-      <c r="T136" s="52"/>
+      <c r="E136" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F136" s="57"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
+      <c r="I136" s="57"/>
+      <c r="J136" s="57"/>
+      <c r="K136" s="57"/>
+      <c r="L136" s="57"/>
+      <c r="M136" s="57"/>
+      <c r="N136" s="57"/>
+      <c r="O136" s="57"/>
+      <c r="P136" s="57"/>
+      <c r="Q136" s="57"/>
+      <c r="R136" s="57"/>
+      <c r="S136" s="57"/>
+      <c r="T136" s="58"/>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C137" s="10"/>
@@ -14298,18 +14395,18 @@
       </c>
       <c r="J138" s="6"/>
       <c r="L138" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M138" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="N138" s="66"/>
-      <c r="O138" s="66"/>
-      <c r="P138" s="66"/>
-      <c r="Q138" s="66"/>
-      <c r="R138" s="66"/>
-      <c r="S138" s="66"/>
-      <c r="T138" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M138" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="N138" s="69"/>
+      <c r="O138" s="69"/>
+      <c r="P138" s="69"/>
+      <c r="Q138" s="69"/>
+      <c r="R138" s="69"/>
+      <c r="S138" s="69"/>
+      <c r="T138" s="70"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E139" s="9"/>
@@ -14323,76 +14420,76 @@
         <v>27</v>
       </c>
       <c r="D141" s="10"/>
-      <c r="E141" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="F141" s="51"/>
-      <c r="G141" s="51"/>
-      <c r="H141" s="51"/>
-      <c r="I141" s="51"/>
-      <c r="J141" s="51"/>
-      <c r="K141" s="51"/>
-      <c r="L141" s="51"/>
-      <c r="M141" s="51"/>
-      <c r="N141" s="51"/>
-      <c r="O141" s="52"/>
+      <c r="E141" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F141" s="57"/>
+      <c r="G141" s="57"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="57"/>
+      <c r="L141" s="57"/>
+      <c r="M141" s="57"/>
+      <c r="N141" s="57"/>
+      <c r="O141" s="58"/>
       <c r="Q141" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R141" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="S141" s="51"/>
-      <c r="T141" s="52"/>
+      <c r="R141" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="S141" s="57"/>
+      <c r="T141" s="58"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>28</v>
       </c>
-      <c r="E143" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="F143" s="57"/>
-      <c r="G143" s="57"/>
-      <c r="H143" s="57"/>
-      <c r="I143" s="57"/>
-      <c r="J143" s="57"/>
-      <c r="K143" s="57"/>
-      <c r="L143" s="57"/>
-      <c r="M143" s="57"/>
-      <c r="N143" s="57"/>
-      <c r="O143" s="57"/>
-      <c r="P143" s="57"/>
-      <c r="Q143" s="57"/>
-      <c r="R143" s="57"/>
-      <c r="S143" s="57"/>
-      <c r="T143" s="58"/>
+      <c r="E143" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F143" s="51"/>
+      <c r="G143" s="51"/>
+      <c r="H143" s="51"/>
+      <c r="I143" s="51"/>
+      <c r="J143" s="51"/>
+      <c r="K143" s="51"/>
+      <c r="L143" s="51"/>
+      <c r="M143" s="51"/>
+      <c r="N143" s="51"/>
+      <c r="O143" s="51"/>
+      <c r="P143" s="51"/>
+      <c r="Q143" s="51"/>
+      <c r="R143" s="51"/>
+      <c r="S143" s="51"/>
+      <c r="T143" s="52"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E144" s="59"/>
-      <c r="F144" s="60"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="60"/>
-      <c r="I144" s="60"/>
-      <c r="J144" s="60"/>
-      <c r="K144" s="60"/>
-      <c r="L144" s="60"/>
-      <c r="M144" s="60"/>
-      <c r="N144" s="60"/>
-      <c r="O144" s="60"/>
-      <c r="P144" s="60"/>
-      <c r="Q144" s="60"/>
-      <c r="R144" s="60"/>
-      <c r="S144" s="60"/>
-      <c r="T144" s="61"/>
-    </row>
-    <row r="146" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="E144" s="53"/>
+      <c r="F144" s="54"/>
+      <c r="G144" s="54"/>
+      <c r="H144" s="54"/>
+      <c r="I144" s="54"/>
+      <c r="J144" s="54"/>
+      <c r="K144" s="54"/>
+      <c r="L144" s="54"/>
+      <c r="M144" s="54"/>
+      <c r="N144" s="54"/>
+      <c r="O144" s="54"/>
+      <c r="P144" s="54"/>
+      <c r="Q144" s="54"/>
+      <c r="R144" s="54"/>
+      <c r="S144" s="54"/>
+      <c r="T144" s="55"/>
+    </row>
+    <row r="146" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A146" s="19">
         <v>12</v>
       </c>
       <c r="B146" s="15"/>
       <c r="C146" s="16" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
@@ -14412,74 +14509,74 @@
       <c r="S146" s="15"/>
       <c r="T146" s="15"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C147" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E147" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="F147" s="51"/>
-      <c r="G147" s="51"/>
-      <c r="H147" s="51"/>
-      <c r="I147" s="51"/>
-      <c r="J147" s="51"/>
-      <c r="K147" s="51"/>
-      <c r="L147" s="51"/>
-      <c r="M147" s="51"/>
-      <c r="N147" s="51"/>
-      <c r="O147" s="52"/>
+      <c r="E147" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="F147" s="57"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="57"/>
+      <c r="J147" s="57"/>
+      <c r="K147" s="57"/>
+      <c r="L147" s="57"/>
+      <c r="M147" s="57"/>
+      <c r="N147" s="57"/>
+      <c r="O147" s="58"/>
       <c r="Q147" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R147" s="71" t="s">
+      <c r="R147" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="S147" s="72"/>
-      <c r="T147" s="73"/>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S147" s="66"/>
+      <c r="T147" s="67"/>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C148" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E148" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F148" s="51"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="51"/>
-      <c r="I148" s="51"/>
-      <c r="J148" s="51"/>
-      <c r="K148" s="51"/>
-      <c r="L148" s="52"/>
+      <c r="E148" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F148" s="57"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="57"/>
+      <c r="J148" s="57"/>
+      <c r="K148" s="57"/>
+      <c r="L148" s="58"/>
       <c r="M148" s="11"/>
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C149" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E149" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="F149" s="51"/>
-      <c r="G149" s="51"/>
-      <c r="H149" s="51"/>
-      <c r="I149" s="51"/>
-      <c r="J149" s="51"/>
-      <c r="K149" s="51"/>
-      <c r="L149" s="51"/>
-      <c r="M149" s="51"/>
-      <c r="N149" s="51"/>
-      <c r="O149" s="51"/>
-      <c r="P149" s="51"/>
-      <c r="Q149" s="51"/>
-      <c r="R149" s="51"/>
-      <c r="S149" s="51"/>
-      <c r="T149" s="52"/>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E149" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="57"/>
+      <c r="J149" s="57"/>
+      <c r="K149" s="57"/>
+      <c r="L149" s="57"/>
+      <c r="M149" s="57"/>
+      <c r="N149" s="57"/>
+      <c r="O149" s="57"/>
+      <c r="P149" s="57"/>
+      <c r="Q149" s="57"/>
+      <c r="R149" s="57"/>
+      <c r="S149" s="57"/>
+      <c r="T149" s="58"/>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C150" s="10"/>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
@@ -14498,7 +14595,7 @@
       <c r="S150" s="12"/>
       <c r="T150" s="12"/>
     </row>
-    <row r="151" spans="1:20" ht="37.799999999999997" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="E151" s="8" t="s">
         <v>22</v>
       </c>
@@ -14516,1886 +14613,1512 @@
       </c>
       <c r="J151" s="6"/>
       <c r="L151" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M151" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="N151" s="54"/>
-      <c r="O151" s="54"/>
-      <c r="P151" s="54"/>
-      <c r="Q151" s="54"/>
-      <c r="R151" s="54"/>
-      <c r="S151" s="54"/>
-      <c r="T151" s="55"/>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="M151" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="N151" s="78"/>
+      <c r="O151" s="78"/>
+      <c r="P151" s="78"/>
+      <c r="Q151" s="78"/>
+      <c r="R151" s="78"/>
+      <c r="S151" s="78"/>
+      <c r="T151" s="79"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="17"/>
       <c r="H152" s="17"/>
       <c r="I152" s="17"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C154" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D154" s="10"/>
-      <c r="E154" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="F154" s="51"/>
-      <c r="G154" s="51"/>
-      <c r="H154" s="51"/>
-      <c r="I154" s="51"/>
-      <c r="J154" s="51"/>
-      <c r="K154" s="51"/>
-      <c r="L154" s="51"/>
-      <c r="M154" s="51"/>
-      <c r="N154" s="51"/>
-      <c r="O154" s="52"/>
+      <c r="E154" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+      <c r="K154" s="57"/>
+      <c r="L154" s="57"/>
+      <c r="M154" s="57"/>
+      <c r="N154" s="57"/>
+      <c r="O154" s="58"/>
       <c r="Q154" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R154" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="S154" s="51"/>
-      <c r="T154" s="52"/>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R154" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="S154" s="57"/>
+      <c r="T154" s="58"/>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>28</v>
       </c>
-      <c r="E156" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="F156" s="57"/>
-      <c r="G156" s="57"/>
-      <c r="H156" s="57"/>
-      <c r="I156" s="57"/>
-      <c r="J156" s="57"/>
-      <c r="K156" s="57"/>
-      <c r="L156" s="57"/>
-      <c r="M156" s="57"/>
-      <c r="N156" s="57"/>
-      <c r="O156" s="57"/>
-      <c r="P156" s="57"/>
-      <c r="Q156" s="57"/>
-      <c r="R156" s="57"/>
-      <c r="S156" s="57"/>
-      <c r="T156" s="58"/>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E157" s="59"/>
-      <c r="F157" s="60"/>
-      <c r="G157" s="60"/>
-      <c r="H157" s="60"/>
-      <c r="I157" s="60"/>
-      <c r="J157" s="60"/>
-      <c r="K157" s="60"/>
-      <c r="L157" s="60"/>
-      <c r="M157" s="60"/>
-      <c r="N157" s="60"/>
-      <c r="O157" s="60"/>
-      <c r="P157" s="60"/>
-      <c r="Q157" s="60"/>
-      <c r="R157" s="60"/>
-      <c r="S157" s="60"/>
-      <c r="T157" s="61"/>
-    </row>
-    <row r="158" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A159" s="19">
+      <c r="E156" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F156" s="51"/>
+      <c r="G156" s="51"/>
+      <c r="H156" s="51"/>
+      <c r="I156" s="51"/>
+      <c r="J156" s="51"/>
+      <c r="K156" s="51"/>
+      <c r="L156" s="51"/>
+      <c r="M156" s="51"/>
+      <c r="N156" s="51"/>
+      <c r="O156" s="51"/>
+      <c r="P156" s="51"/>
+      <c r="Q156" s="51"/>
+      <c r="R156" s="51"/>
+      <c r="S156" s="51"/>
+      <c r="T156" s="52"/>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E157" s="53"/>
+      <c r="F157" s="54"/>
+      <c r="G157" s="54"/>
+      <c r="H157" s="54"/>
+      <c r="I157" s="54"/>
+      <c r="J157" s="54"/>
+      <c r="K157" s="54"/>
+      <c r="L157" s="54"/>
+      <c r="M157" s="54"/>
+      <c r="N157" s="54"/>
+      <c r="O157" s="54"/>
+      <c r="P157" s="54"/>
+      <c r="Q157" s="54"/>
+      <c r="R157" s="54"/>
+      <c r="S157" s="54"/>
+      <c r="T157" s="55"/>
+    </row>
+    <row r="158" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E159" s="36"/>
+      <c r="F159" s="36"/>
+      <c r="G159" s="36"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="36"/>
+      <c r="J159" s="36"/>
+      <c r="K159" s="36"/>
+      <c r="L159" s="36"/>
+      <c r="M159" s="36"/>
+      <c r="N159" s="36"/>
+      <c r="O159" s="36"/>
+      <c r="P159" s="36"/>
+      <c r="Q159" s="36"/>
+      <c r="R159" s="36"/>
+      <c r="S159" s="36"/>
+      <c r="T159" s="36"/>
+    </row>
+    <row r="160" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="A160" s="19">
         <v>13</v>
       </c>
-      <c r="B159" s="15"/>
-      <c r="C159" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="15"/>
-      <c r="M159" s="15"/>
-      <c r="N159" s="15"/>
-      <c r="O159" s="15"/>
-      <c r="P159" s="15"/>
-      <c r="Q159" s="15"/>
-      <c r="R159" s="15"/>
-      <c r="S159" s="15"/>
-      <c r="T159" s="15"/>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C160" s="10" t="s">
+      <c r="B160" s="15"/>
+      <c r="C160" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
+      <c r="O160" s="15"/>
+      <c r="P160" s="15"/>
+      <c r="Q160" s="15"/>
+      <c r="R160" s="15"/>
+      <c r="S160" s="15"/>
+      <c r="T160" s="15"/>
+      <c r="U160" s="15"/>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C161" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E160" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="F160" s="51"/>
-      <c r="G160" s="51"/>
-      <c r="H160" s="51"/>
-      <c r="I160" s="51"/>
-      <c r="J160" s="51"/>
-      <c r="K160" s="51"/>
-      <c r="L160" s="51"/>
-      <c r="M160" s="51"/>
-      <c r="N160" s="51"/>
-      <c r="O160" s="52"/>
-      <c r="Q160" s="10" t="s">
+      <c r="E161" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="F161" s="57"/>
+      <c r="G161" s="57"/>
+      <c r="H161" s="57"/>
+      <c r="I161" s="57"/>
+      <c r="J161" s="57"/>
+      <c r="K161" s="57"/>
+      <c r="L161" s="57"/>
+      <c r="M161" s="57"/>
+      <c r="N161" s="57"/>
+      <c r="O161" s="58"/>
+      <c r="Q161" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R160" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="S160" s="72"/>
-      <c r="T160" s="73"/>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C161" s="10" t="s">
+      <c r="R161" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="S161" s="72"/>
+      <c r="T161" s="73"/>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C162" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E161" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="F161" s="51"/>
-      <c r="G161" s="51"/>
-      <c r="H161" s="51"/>
-      <c r="I161" s="51"/>
-      <c r="J161" s="51"/>
-      <c r="K161" s="51"/>
-      <c r="L161" s="52"/>
-      <c r="M161" s="11"/>
-      <c r="N161" s="11"/>
-      <c r="O161" s="11"/>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C162" s="10" t="s">
+      <c r="E162" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F162" s="57"/>
+      <c r="G162" s="57"/>
+      <c r="H162" s="57"/>
+      <c r="I162" s="57"/>
+      <c r="J162" s="57"/>
+      <c r="K162" s="57"/>
+      <c r="L162" s="58"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
+    </row>
+    <row r="163" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E162" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="F162" s="51"/>
-      <c r="G162" s="51"/>
-      <c r="H162" s="51"/>
-      <c r="I162" s="51"/>
-      <c r="J162" s="51"/>
-      <c r="K162" s="51"/>
-      <c r="L162" s="51"/>
-      <c r="M162" s="51"/>
-      <c r="N162" s="51"/>
-      <c r="O162" s="51"/>
-      <c r="P162" s="51"/>
-      <c r="Q162" s="51"/>
-      <c r="R162" s="51"/>
-      <c r="S162" s="51"/>
-      <c r="T162" s="52"/>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C163" s="10"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="12"/>
-      <c r="L163" s="12"/>
-      <c r="M163" s="12"/>
-      <c r="N163" s="12"/>
-      <c r="O163" s="12"/>
-      <c r="P163" s="12"/>
-      <c r="Q163" s="12"/>
-      <c r="R163" s="12"/>
-      <c r="S163" s="12"/>
-      <c r="T163" s="12"/>
-    </row>
-    <row r="164" spans="1:20" ht="60" x14ac:dyDescent="0.3">
-      <c r="E164" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="6"/>
-      <c r="L164" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M164" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N164" s="66"/>
-      <c r="O164" s="66"/>
-      <c r="P164" s="66"/>
-      <c r="Q164" s="66"/>
-      <c r="R164" s="66"/>
-      <c r="S164" s="66"/>
-      <c r="T164" s="67"/>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E165" s="9"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C167" s="10" t="s">
+      <c r="E163" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="F163" s="75"/>
+      <c r="G163" s="75"/>
+      <c r="H163" s="75"/>
+      <c r="I163" s="75"/>
+      <c r="J163" s="75"/>
+      <c r="K163" s="75"/>
+      <c r="L163" s="75"/>
+      <c r="M163" s="75"/>
+      <c r="N163" s="75"/>
+      <c r="O163" s="75"/>
+      <c r="P163" s="75"/>
+      <c r="Q163" s="75"/>
+      <c r="R163" s="75"/>
+      <c r="S163" s="75"/>
+      <c r="T163" s="76"/>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C164" s="10"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="12"/>
+      <c r="Q164" s="12"/>
+      <c r="R164" s="12"/>
+      <c r="S164" s="12"/>
+      <c r="T164" s="12"/>
+    </row>
+    <row r="165" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="E165" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J165" s="6"/>
+      <c r="L165" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M165" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="N165" s="69"/>
+      <c r="O165" s="69"/>
+      <c r="P165" s="69"/>
+      <c r="Q165" s="69"/>
+      <c r="R165" s="69"/>
+      <c r="S165" s="69"/>
+      <c r="T165" s="70"/>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="7"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C168" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D167" s="10"/>
-      <c r="E167" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="F167" s="51"/>
-      <c r="G167" s="51"/>
-      <c r="H167" s="51"/>
-      <c r="I167" s="51"/>
-      <c r="J167" s="51"/>
-      <c r="K167" s="51"/>
-      <c r="L167" s="51"/>
-      <c r="M167" s="51"/>
-      <c r="N167" s="51"/>
-      <c r="O167" s="52"/>
-      <c r="Q167" s="10" t="s">
+      <c r="D168" s="10"/>
+      <c r="E168" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="F168" s="57"/>
+      <c r="G168" s="57"/>
+      <c r="H168" s="57"/>
+      <c r="I168" s="57"/>
+      <c r="J168" s="57"/>
+      <c r="K168" s="57"/>
+      <c r="L168" s="57"/>
+      <c r="M168" s="57"/>
+      <c r="N168" s="57"/>
+      <c r="O168" s="58"/>
+      <c r="Q168" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R167" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="S167" s="51"/>
-      <c r="T167" s="52"/>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
+      <c r="R168" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="S168" s="57"/>
+      <c r="T168" s="58"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
         <v>28</v>
       </c>
-      <c r="E169" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="F169" s="57"/>
-      <c r="G169" s="57"/>
-      <c r="H169" s="57"/>
-      <c r="I169" s="57"/>
-      <c r="J169" s="57"/>
-      <c r="K169" s="57"/>
-      <c r="L169" s="57"/>
-      <c r="M169" s="57"/>
-      <c r="N169" s="57"/>
-      <c r="O169" s="57"/>
-      <c r="P169" s="57"/>
-      <c r="Q169" s="57"/>
-      <c r="R169" s="57"/>
-      <c r="S169" s="57"/>
-      <c r="T169" s="58"/>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E170" s="59"/>
-      <c r="F170" s="60"/>
-      <c r="G170" s="60"/>
-      <c r="H170" s="60"/>
-      <c r="I170" s="60"/>
-      <c r="J170" s="60"/>
-      <c r="K170" s="60"/>
-      <c r="L170" s="60"/>
-      <c r="M170" s="60"/>
-      <c r="N170" s="60"/>
-      <c r="O170" s="60"/>
-      <c r="P170" s="60"/>
-      <c r="Q170" s="60"/>
-      <c r="R170" s="60"/>
-      <c r="S170" s="60"/>
-      <c r="T170" s="61"/>
-    </row>
-    <row r="171" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A172" s="19">
+      <c r="E170" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F170" s="51"/>
+      <c r="G170" s="51"/>
+      <c r="H170" s="51"/>
+      <c r="I170" s="51"/>
+      <c r="J170" s="51"/>
+      <c r="K170" s="51"/>
+      <c r="L170" s="51"/>
+      <c r="M170" s="51"/>
+      <c r="N170" s="51"/>
+      <c r="O170" s="51"/>
+      <c r="P170" s="51"/>
+      <c r="Q170" s="51"/>
+      <c r="R170" s="51"/>
+      <c r="S170" s="51"/>
+      <c r="T170" s="52"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E171" s="53"/>
+      <c r="F171" s="54"/>
+      <c r="G171" s="54"/>
+      <c r="H171" s="54"/>
+      <c r="I171" s="54"/>
+      <c r="J171" s="54"/>
+      <c r="K171" s="54"/>
+      <c r="L171" s="54"/>
+      <c r="M171" s="54"/>
+      <c r="N171" s="54"/>
+      <c r="O171" s="54"/>
+      <c r="P171" s="54"/>
+      <c r="Q171" s="54"/>
+      <c r="R171" s="54"/>
+      <c r="S171" s="54"/>
+      <c r="T171" s="55"/>
+    </row>
+    <row r="173" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="A173" s="19">
         <v>14</v>
       </c>
-      <c r="B172" s="15"/>
-      <c r="C172" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="15"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="15"/>
-      <c r="L172" s="15"/>
-      <c r="M172" s="15"/>
-      <c r="N172" s="15"/>
-      <c r="O172" s="15"/>
-      <c r="P172" s="15"/>
-      <c r="Q172" s="15"/>
-      <c r="R172" s="15"/>
-      <c r="S172" s="15"/>
-      <c r="T172" s="15"/>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C173" s="10" t="s">
+      <c r="B173" s="15"/>
+      <c r="C173" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+      <c r="O173" s="15"/>
+      <c r="P173" s="15"/>
+      <c r="Q173" s="15"/>
+      <c r="R173" s="15"/>
+      <c r="S173" s="15"/>
+      <c r="T173" s="15"/>
+      <c r="U173" s="15"/>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C174" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E173" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="F173" s="51"/>
-      <c r="G173" s="51"/>
-      <c r="H173" s="51"/>
-      <c r="I173" s="51"/>
-      <c r="J173" s="51"/>
-      <c r="K173" s="51"/>
-      <c r="L173" s="51"/>
-      <c r="M173" s="51"/>
-      <c r="N173" s="51"/>
-      <c r="O173" s="52"/>
-      <c r="Q173" s="10" t="s">
+      <c r="E174" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="F174" s="57"/>
+      <c r="G174" s="57"/>
+      <c r="H174" s="57"/>
+      <c r="I174" s="57"/>
+      <c r="J174" s="57"/>
+      <c r="K174" s="57"/>
+      <c r="L174" s="57"/>
+      <c r="M174" s="57"/>
+      <c r="N174" s="57"/>
+      <c r="O174" s="58"/>
+      <c r="Q174" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R173" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="S173" s="72"/>
-      <c r="T173" s="73"/>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C174" s="10" t="s">
+      <c r="R174" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="S174" s="72"/>
+      <c r="T174" s="73"/>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C175" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E174" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="F174" s="51"/>
-      <c r="G174" s="51"/>
-      <c r="H174" s="51"/>
-      <c r="I174" s="51"/>
-      <c r="J174" s="51"/>
-      <c r="K174" s="51"/>
-      <c r="L174" s="52"/>
-      <c r="M174" s="11"/>
-      <c r="N174" s="11"/>
-      <c r="O174" s="11"/>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C175" s="10" t="s">
+      <c r="E175" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F175" s="57"/>
+      <c r="G175" s="57"/>
+      <c r="H175" s="57"/>
+      <c r="I175" s="57"/>
+      <c r="J175" s="57"/>
+      <c r="K175" s="57"/>
+      <c r="L175" s="58"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C176" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E175" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="F175" s="51"/>
-      <c r="G175" s="51"/>
-      <c r="H175" s="51"/>
-      <c r="I175" s="51"/>
-      <c r="J175" s="51"/>
-      <c r="K175" s="51"/>
-      <c r="L175" s="51"/>
-      <c r="M175" s="51"/>
-      <c r="N175" s="51"/>
-      <c r="O175" s="51"/>
-      <c r="P175" s="51"/>
-      <c r="Q175" s="51"/>
-      <c r="R175" s="51"/>
-      <c r="S175" s="51"/>
-      <c r="T175" s="52"/>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C176" s="10"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
-      <c r="M176" s="12"/>
-      <c r="N176" s="12"/>
-      <c r="O176" s="12"/>
-      <c r="P176" s="12"/>
-      <c r="Q176" s="12"/>
-      <c r="R176" s="12"/>
-      <c r="S176" s="12"/>
-      <c r="T176" s="12"/>
-    </row>
-    <row r="177" spans="1:21" ht="60" x14ac:dyDescent="0.3">
-      <c r="E177" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F177" s="37"/>
-      <c r="G177" s="37"/>
-      <c r="H177" s="37"/>
-      <c r="I177" s="37"/>
-      <c r="J177" s="6"/>
-      <c r="L177" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M177" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="N177" s="66"/>
-      <c r="O177" s="66"/>
-      <c r="P177" s="66"/>
-      <c r="Q177" s="66"/>
-      <c r="R177" s="66"/>
-      <c r="S177" s="66"/>
-      <c r="T177" s="67"/>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E178" s="9"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="17"/>
-      <c r="I178" s="17"/>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C180" s="10" t="s">
+      <c r="E176" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="F176" s="75"/>
+      <c r="G176" s="75"/>
+      <c r="H176" s="75"/>
+      <c r="I176" s="75"/>
+      <c r="J176" s="75"/>
+      <c r="K176" s="75"/>
+      <c r="L176" s="75"/>
+      <c r="M176" s="75"/>
+      <c r="N176" s="75"/>
+      <c r="O176" s="75"/>
+      <c r="P176" s="75"/>
+      <c r="Q176" s="75"/>
+      <c r="R176" s="75"/>
+      <c r="S176" s="75"/>
+      <c r="T176" s="76"/>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C177" s="10"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="12"/>
+      <c r="Q177" s="12"/>
+      <c r="R177" s="12"/>
+      <c r="S177" s="12"/>
+      <c r="T177" s="12"/>
+    </row>
+    <row r="178" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="E178" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H178" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I178" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J178" s="6"/>
+      <c r="L178" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M178" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="N178" s="69"/>
+      <c r="O178" s="69"/>
+      <c r="P178" s="69"/>
+      <c r="Q178" s="69"/>
+      <c r="R178" s="69"/>
+      <c r="S178" s="69"/>
+      <c r="T178" s="70"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E179" s="17"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C181" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D180" s="10"/>
-      <c r="E180" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="F180" s="51"/>
-      <c r="G180" s="51"/>
-      <c r="H180" s="51"/>
-      <c r="I180" s="51"/>
-      <c r="J180" s="51"/>
-      <c r="K180" s="51"/>
-      <c r="L180" s="51"/>
-      <c r="M180" s="51"/>
-      <c r="N180" s="51"/>
-      <c r="O180" s="52"/>
-      <c r="Q180" s="10" t="s">
+      <c r="D181" s="10"/>
+      <c r="E181" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="F181" s="57"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="57"/>
+      <c r="I181" s="57"/>
+      <c r="J181" s="57"/>
+      <c r="K181" s="57"/>
+      <c r="L181" s="57"/>
+      <c r="M181" s="57"/>
+      <c r="N181" s="57"/>
+      <c r="O181" s="58"/>
+      <c r="Q181" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R180" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="S180" s="51"/>
-      <c r="T180" s="52"/>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C182" t="s">
+      <c r="R181" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="S181" s="57"/>
+      <c r="T181" s="58"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
         <v>28</v>
       </c>
-      <c r="E182" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="F182" s="57"/>
-      <c r="G182" s="57"/>
-      <c r="H182" s="57"/>
-      <c r="I182" s="57"/>
-      <c r="J182" s="57"/>
-      <c r="K182" s="57"/>
-      <c r="L182" s="57"/>
-      <c r="M182" s="57"/>
-      <c r="N182" s="57"/>
-      <c r="O182" s="57"/>
-      <c r="P182" s="57"/>
-      <c r="Q182" s="57"/>
-      <c r="R182" s="57"/>
-      <c r="S182" s="57"/>
-      <c r="T182" s="58"/>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E183" s="59"/>
-      <c r="F183" s="60"/>
-      <c r="G183" s="60"/>
-      <c r="H183" s="60"/>
-      <c r="I183" s="60"/>
-      <c r="J183" s="60"/>
-      <c r="K183" s="60"/>
-      <c r="L183" s="60"/>
-      <c r="M183" s="60"/>
-      <c r="N183" s="60"/>
-      <c r="O183" s="60"/>
-      <c r="P183" s="60"/>
-      <c r="Q183" s="60"/>
-      <c r="R183" s="60"/>
-      <c r="S183" s="60"/>
-      <c r="T183" s="61"/>
+      <c r="E183" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F183" s="51"/>
+      <c r="G183" s="51"/>
+      <c r="H183" s="51"/>
+      <c r="I183" s="51"/>
+      <c r="J183" s="51"/>
+      <c r="K183" s="51"/>
+      <c r="L183" s="51"/>
+      <c r="M183" s="51"/>
+      <c r="N183" s="51"/>
+      <c r="O183" s="51"/>
+      <c r="P183" s="51"/>
+      <c r="Q183" s="51"/>
+      <c r="R183" s="51"/>
+      <c r="S183" s="51"/>
+      <c r="T183" s="52"/>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E184" s="36"/>
-      <c r="F184" s="36"/>
-      <c r="G184" s="36"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="36"/>
-      <c r="J184" s="36"/>
-      <c r="K184" s="36"/>
-      <c r="L184" s="36"/>
-      <c r="M184" s="36"/>
-      <c r="N184" s="36"/>
-      <c r="O184" s="36"/>
-      <c r="P184" s="36"/>
-      <c r="Q184" s="36"/>
-      <c r="R184" s="36"/>
-      <c r="S184" s="36"/>
-      <c r="T184" s="36"/>
-    </row>
-    <row r="185" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A185" s="19">
+      <c r="E184" s="53"/>
+      <c r="F184" s="54"/>
+      <c r="G184" s="54"/>
+      <c r="H184" s="54"/>
+      <c r="I184" s="54"/>
+      <c r="J184" s="54"/>
+      <c r="K184" s="54"/>
+      <c r="L184" s="54"/>
+      <c r="M184" s="54"/>
+      <c r="N184" s="54"/>
+      <c r="O184" s="54"/>
+      <c r="P184" s="54"/>
+      <c r="Q184" s="54"/>
+      <c r="R184" s="54"/>
+      <c r="S184" s="54"/>
+      <c r="T184" s="55"/>
+    </row>
+    <row r="186" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="A186" s="19">
         <v>15</v>
       </c>
-      <c r="B185" s="15"/>
-      <c r="C185" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="15"/>
-      <c r="L185" s="15"/>
-      <c r="M185" s="15"/>
-      <c r="N185" s="15"/>
-      <c r="O185" s="15"/>
-      <c r="P185" s="15"/>
-      <c r="Q185" s="15"/>
-      <c r="R185" s="15"/>
-      <c r="S185" s="15"/>
-      <c r="T185" s="15"/>
-      <c r="U185" s="15"/>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C186" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E186" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="F186" s="51"/>
-      <c r="G186" s="51"/>
-      <c r="H186" s="51"/>
-      <c r="I186" s="51"/>
-      <c r="J186" s="51"/>
-      <c r="K186" s="51"/>
-      <c r="L186" s="51"/>
-      <c r="M186" s="51"/>
-      <c r="N186" s="51"/>
-      <c r="O186" s="52"/>
-      <c r="Q186" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R186" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="S186" s="69"/>
-      <c r="T186" s="70"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="15"/>
+      <c r="K186" s="15"/>
+      <c r="L186" s="15"/>
+      <c r="M186" s="15"/>
+      <c r="N186" s="15"/>
+      <c r="O186" s="15"/>
+      <c r="P186" s="15"/>
+      <c r="Q186" s="15"/>
+      <c r="R186" s="15"/>
+      <c r="S186" s="15"/>
+      <c r="T186" s="15"/>
+      <c r="U186" s="15"/>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C187" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E187" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F187" s="57"/>
+      <c r="G187" s="57"/>
+      <c r="H187" s="57"/>
+      <c r="I187" s="57"/>
+      <c r="J187" s="57"/>
+      <c r="K187" s="57"/>
+      <c r="L187" s="57"/>
+      <c r="M187" s="57"/>
+      <c r="N187" s="57"/>
+      <c r="O187" s="58"/>
+      <c r="Q187" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R187" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="S187" s="72"/>
+      <c r="T187" s="73"/>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C188" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E187" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F187" s="51"/>
-      <c r="G187" s="51"/>
-      <c r="H187" s="51"/>
-      <c r="I187" s="51"/>
-      <c r="J187" s="51"/>
-      <c r="K187" s="51"/>
-      <c r="L187" s="52"/>
-      <c r="M187" s="11"/>
-      <c r="N187" s="11"/>
-      <c r="O187" s="11"/>
-    </row>
-    <row r="188" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C188" s="10" t="s">
+      <c r="E188" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F188" s="57"/>
+      <c r="G188" s="57"/>
+      <c r="H188" s="57"/>
+      <c r="I188" s="57"/>
+      <c r="J188" s="57"/>
+      <c r="K188" s="57"/>
+      <c r="L188" s="58"/>
+      <c r="M188" s="11"/>
+      <c r="N188" s="11"/>
+      <c r="O188" s="11"/>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C189" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E188" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="F188" s="63"/>
-      <c r="G188" s="63"/>
-      <c r="H188" s="63"/>
-      <c r="I188" s="63"/>
-      <c r="J188" s="63"/>
-      <c r="K188" s="63"/>
-      <c r="L188" s="63"/>
-      <c r="M188" s="63"/>
-      <c r="N188" s="63"/>
-      <c r="O188" s="63"/>
-      <c r="P188" s="63"/>
-      <c r="Q188" s="63"/>
-      <c r="R188" s="63"/>
-      <c r="S188" s="63"/>
-      <c r="T188" s="64"/>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C189" s="10"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="12"/>
-      <c r="M189" s="12"/>
-      <c r="N189" s="12"/>
-      <c r="O189" s="12"/>
-      <c r="P189" s="12"/>
-      <c r="Q189" s="12"/>
-      <c r="R189" s="12"/>
-      <c r="S189" s="12"/>
-      <c r="T189" s="12"/>
-    </row>
-    <row r="190" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="E190" s="8" t="s">
+      <c r="E189" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="F189" s="75"/>
+      <c r="G189" s="75"/>
+      <c r="H189" s="75"/>
+      <c r="I189" s="75"/>
+      <c r="J189" s="75"/>
+      <c r="K189" s="75"/>
+      <c r="L189" s="75"/>
+      <c r="M189" s="75"/>
+      <c r="N189" s="75"/>
+      <c r="O189" s="75"/>
+      <c r="P189" s="75"/>
+      <c r="Q189" s="75"/>
+      <c r="R189" s="75"/>
+      <c r="S189" s="75"/>
+      <c r="T189" s="76"/>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C190" s="10"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
+      <c r="O190" s="12"/>
+      <c r="P190" s="12"/>
+      <c r="Q190" s="12"/>
+      <c r="R190" s="12"/>
+      <c r="S190" s="12"/>
+      <c r="T190" s="12"/>
+    </row>
+    <row r="191" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="E191" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F190" s="8" t="s">
+      <c r="F191" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G190" s="8" t="s">
+      <c r="G191" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H190" s="8" t="s">
+      <c r="H191" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I190" s="8" t="s">
+      <c r="I191" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J190" s="6"/>
-      <c r="L190" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M190" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="N190" s="66"/>
-      <c r="O190" s="66"/>
-      <c r="P190" s="66"/>
-      <c r="Q190" s="66"/>
-      <c r="R190" s="66"/>
-      <c r="S190" s="66"/>
-      <c r="T190" s="67"/>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E191" s="9"/>
-      <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="9"/>
-      <c r="I191" s="7"/>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C193" s="10" t="s">
+      <c r="J191" s="6"/>
+      <c r="L191" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M191" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="N191" s="69"/>
+      <c r="O191" s="69"/>
+      <c r="P191" s="69"/>
+      <c r="Q191" s="69"/>
+      <c r="R191" s="69"/>
+      <c r="S191" s="69"/>
+      <c r="T191" s="70"/>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E192" s="9"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C194" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D193" s="10"/>
-      <c r="E193" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F193" s="51"/>
-      <c r="G193" s="51"/>
-      <c r="H193" s="51"/>
-      <c r="I193" s="51"/>
-      <c r="J193" s="51"/>
-      <c r="K193" s="51"/>
-      <c r="L193" s="51"/>
-      <c r="M193" s="51"/>
-      <c r="N193" s="51"/>
-      <c r="O193" s="52"/>
-      <c r="Q193" s="10" t="s">
+      <c r="D194" s="10"/>
+      <c r="E194" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F194" s="57"/>
+      <c r="G194" s="57"/>
+      <c r="H194" s="57"/>
+      <c r="I194" s="57"/>
+      <c r="J194" s="57"/>
+      <c r="K194" s="57"/>
+      <c r="L194" s="57"/>
+      <c r="M194" s="57"/>
+      <c r="N194" s="57"/>
+      <c r="O194" s="58"/>
+      <c r="Q194" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R193" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="S193" s="51"/>
-      <c r="T193" s="52"/>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C195" t="s">
+      <c r="R194" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S194" s="57"/>
+      <c r="T194" s="58"/>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
         <v>28</v>
       </c>
-      <c r="E195" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="F195" s="57"/>
-      <c r="G195" s="57"/>
-      <c r="H195" s="57"/>
-      <c r="I195" s="57"/>
-      <c r="J195" s="57"/>
-      <c r="K195" s="57"/>
-      <c r="L195" s="57"/>
-      <c r="M195" s="57"/>
-      <c r="N195" s="57"/>
-      <c r="O195" s="57"/>
-      <c r="P195" s="57"/>
-      <c r="Q195" s="57"/>
-      <c r="R195" s="57"/>
-      <c r="S195" s="57"/>
-      <c r="T195" s="58"/>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E196" s="59"/>
-      <c r="F196" s="60"/>
-      <c r="G196" s="60"/>
-      <c r="H196" s="60"/>
-      <c r="I196" s="60"/>
-      <c r="J196" s="60"/>
-      <c r="K196" s="60"/>
-      <c r="L196" s="60"/>
-      <c r="M196" s="60"/>
-      <c r="N196" s="60"/>
-      <c r="O196" s="60"/>
-      <c r="P196" s="60"/>
-      <c r="Q196" s="60"/>
-      <c r="R196" s="60"/>
-      <c r="S196" s="60"/>
-      <c r="T196" s="61"/>
-    </row>
-    <row r="198" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A198" s="19">
+      <c r="E196" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F196" s="51"/>
+      <c r="G196" s="51"/>
+      <c r="H196" s="51"/>
+      <c r="I196" s="51"/>
+      <c r="J196" s="51"/>
+      <c r="K196" s="51"/>
+      <c r="L196" s="51"/>
+      <c r="M196" s="51"/>
+      <c r="N196" s="51"/>
+      <c r="O196" s="51"/>
+      <c r="P196" s="51"/>
+      <c r="Q196" s="51"/>
+      <c r="R196" s="51"/>
+      <c r="S196" s="51"/>
+      <c r="T196" s="52"/>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E197" s="53"/>
+      <c r="F197" s="54"/>
+      <c r="G197" s="54"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="54"/>
+      <c r="J197" s="54"/>
+      <c r="K197" s="54"/>
+      <c r="L197" s="54"/>
+      <c r="M197" s="54"/>
+      <c r="N197" s="54"/>
+      <c r="O197" s="54"/>
+      <c r="P197" s="54"/>
+      <c r="Q197" s="54"/>
+      <c r="R197" s="54"/>
+      <c r="S197" s="54"/>
+      <c r="T197" s="55"/>
+    </row>
+    <row r="199" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="A199" s="19">
         <v>16</v>
       </c>
-      <c r="B198" s="15"/>
-      <c r="C198" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D198" s="15"/>
-      <c r="E198" s="15"/>
-      <c r="F198" s="15"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="15"/>
-      <c r="I198" s="15"/>
-      <c r="J198" s="15"/>
-      <c r="K198" s="15"/>
-      <c r="L198" s="15"/>
-      <c r="M198" s="15"/>
-      <c r="N198" s="15"/>
-      <c r="O198" s="15"/>
-      <c r="P198" s="15"/>
-      <c r="Q198" s="15"/>
-      <c r="R198" s="15"/>
-      <c r="S198" s="15"/>
-      <c r="T198" s="15"/>
-      <c r="U198" s="15"/>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C199" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E199" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="F199" s="51"/>
-      <c r="G199" s="51"/>
-      <c r="H199" s="51"/>
-      <c r="I199" s="51"/>
-      <c r="J199" s="51"/>
-      <c r="K199" s="51"/>
-      <c r="L199" s="51"/>
-      <c r="M199" s="51"/>
-      <c r="N199" s="51"/>
-      <c r="O199" s="52"/>
-      <c r="Q199" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R199" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="S199" s="69"/>
-      <c r="T199" s="70"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
+      <c r="K199" s="15"/>
+      <c r="L199" s="15"/>
+      <c r="M199" s="15"/>
+      <c r="N199" s="15"/>
+      <c r="O199" s="15"/>
+      <c r="P199" s="15"/>
+      <c r="Q199" s="15"/>
+      <c r="R199" s="15"/>
+      <c r="S199" s="15"/>
+      <c r="T199" s="15"/>
+      <c r="U199" s="15"/>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C200" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E200" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F200" s="51"/>
-      <c r="G200" s="51"/>
-      <c r="H200" s="51"/>
-      <c r="I200" s="51"/>
-      <c r="J200" s="51"/>
-      <c r="K200" s="51"/>
-      <c r="L200" s="52"/>
-      <c r="M200" s="11"/>
-      <c r="N200" s="11"/>
-      <c r="O200" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="E200" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F200" s="57"/>
+      <c r="G200" s="57"/>
+      <c r="H200" s="57"/>
+      <c r="I200" s="57"/>
+      <c r="J200" s="57"/>
+      <c r="K200" s="57"/>
+      <c r="L200" s="57"/>
+      <c r="M200" s="57"/>
+      <c r="N200" s="57"/>
+      <c r="O200" s="58"/>
+      <c r="Q200" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R200" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="S200" s="72"/>
+      <c r="T200" s="73"/>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C201" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E201" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F201" s="57"/>
+      <c r="G201" s="57"/>
+      <c r="H201" s="57"/>
+      <c r="I201" s="57"/>
+      <c r="J201" s="57"/>
+      <c r="K201" s="57"/>
+      <c r="L201" s="58"/>
+      <c r="M201" s="11"/>
+      <c r="N201" s="11"/>
+      <c r="O201" s="11"/>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C202" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E201" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F201" s="63"/>
-      <c r="G201" s="63"/>
-      <c r="H201" s="63"/>
-      <c r="I201" s="63"/>
-      <c r="J201" s="63"/>
-      <c r="K201" s="63"/>
-      <c r="L201" s="63"/>
-      <c r="M201" s="63"/>
-      <c r="N201" s="63"/>
-      <c r="O201" s="63"/>
-      <c r="P201" s="63"/>
-      <c r="Q201" s="63"/>
-      <c r="R201" s="63"/>
-      <c r="S201" s="63"/>
-      <c r="T201" s="64"/>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C202" s="10"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="12"/>
-      <c r="H202" s="12"/>
-      <c r="I202" s="12"/>
-      <c r="J202" s="12"/>
-      <c r="K202" s="12"/>
-      <c r="L202" s="12"/>
-      <c r="M202" s="12"/>
-      <c r="N202" s="12"/>
-      <c r="O202" s="12"/>
-      <c r="P202" s="12"/>
-      <c r="Q202" s="12"/>
-      <c r="R202" s="12"/>
-      <c r="S202" s="12"/>
-      <c r="T202" s="12"/>
-    </row>
-    <row r="203" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="E203" s="8" t="s">
+      <c r="E202" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="F202" s="75"/>
+      <c r="G202" s="75"/>
+      <c r="H202" s="75"/>
+      <c r="I202" s="75"/>
+      <c r="J202" s="75"/>
+      <c r="K202" s="75"/>
+      <c r="L202" s="75"/>
+      <c r="M202" s="75"/>
+      <c r="N202" s="75"/>
+      <c r="O202" s="75"/>
+      <c r="P202" s="75"/>
+      <c r="Q202" s="75"/>
+      <c r="R202" s="75"/>
+      <c r="S202" s="75"/>
+      <c r="T202" s="76"/>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C203" s="10"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="12"/>
+      <c r="N203" s="12"/>
+      <c r="O203" s="12"/>
+      <c r="P203" s="12"/>
+      <c r="Q203" s="12"/>
+      <c r="R203" s="12"/>
+      <c r="S203" s="12"/>
+      <c r="T203" s="12"/>
+    </row>
+    <row r="204" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="E204" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F203" s="8" t="s">
+      <c r="F204" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G203" s="8" t="s">
+      <c r="G204" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H203" s="8" t="s">
+      <c r="H204" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I203" s="8" t="s">
+      <c r="I204" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J203" s="6"/>
-      <c r="L203" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M203" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="N203" s="66"/>
-      <c r="O203" s="66"/>
-      <c r="P203" s="66"/>
-      <c r="Q203" s="66"/>
-      <c r="R203" s="66"/>
-      <c r="S203" s="66"/>
-      <c r="T203" s="67"/>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E204" s="17"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="7"/>
-      <c r="H204" s="7"/>
-      <c r="I204" s="7"/>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C206" s="10" t="s">
+      <c r="J204" s="6"/>
+      <c r="L204" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M204" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="N204" s="69"/>
+      <c r="O204" s="69"/>
+      <c r="P204" s="69"/>
+      <c r="Q204" s="69"/>
+      <c r="R204" s="69"/>
+      <c r="S204" s="69"/>
+      <c r="T204" s="70"/>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E205" s="9"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="7"/>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C207" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D206" s="10"/>
-      <c r="E206" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="F206" s="51"/>
-      <c r="G206" s="51"/>
-      <c r="H206" s="51"/>
-      <c r="I206" s="51"/>
-      <c r="J206" s="51"/>
-      <c r="K206" s="51"/>
-      <c r="L206" s="51"/>
-      <c r="M206" s="51"/>
-      <c r="N206" s="51"/>
-      <c r="O206" s="52"/>
-      <c r="Q206" s="10" t="s">
+      <c r="D207" s="10"/>
+      <c r="E207" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F207" s="57"/>
+      <c r="G207" s="57"/>
+      <c r="H207" s="57"/>
+      <c r="I207" s="57"/>
+      <c r="J207" s="57"/>
+      <c r="K207" s="57"/>
+      <c r="L207" s="57"/>
+      <c r="M207" s="57"/>
+      <c r="N207" s="57"/>
+      <c r="O207" s="58"/>
+      <c r="Q207" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R206" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="S206" s="51"/>
-      <c r="T206" s="52"/>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C208" t="s">
+      <c r="R207" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S207" s="57"/>
+      <c r="T207" s="58"/>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
         <v>28</v>
       </c>
-      <c r="E208" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="F208" s="57"/>
-      <c r="G208" s="57"/>
-      <c r="H208" s="57"/>
-      <c r="I208" s="57"/>
-      <c r="J208" s="57"/>
-      <c r="K208" s="57"/>
-      <c r="L208" s="57"/>
-      <c r="M208" s="57"/>
-      <c r="N208" s="57"/>
-      <c r="O208" s="57"/>
-      <c r="P208" s="57"/>
-      <c r="Q208" s="57"/>
-      <c r="R208" s="57"/>
-      <c r="S208" s="57"/>
-      <c r="T208" s="58"/>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E209" s="59"/>
-      <c r="F209" s="60"/>
-      <c r="G209" s="60"/>
-      <c r="H209" s="60"/>
-      <c r="I209" s="60"/>
-      <c r="J209" s="60"/>
-      <c r="K209" s="60"/>
-      <c r="L209" s="60"/>
-      <c r="M209" s="60"/>
-      <c r="N209" s="60"/>
-      <c r="O209" s="60"/>
-      <c r="P209" s="60"/>
-      <c r="Q209" s="60"/>
-      <c r="R209" s="60"/>
-      <c r="S209" s="60"/>
-      <c r="T209" s="61"/>
-    </row>
-    <row r="211" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A211" s="19">
+      <c r="E209" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F209" s="51"/>
+      <c r="G209" s="51"/>
+      <c r="H209" s="51"/>
+      <c r="I209" s="51"/>
+      <c r="J209" s="51"/>
+      <c r="K209" s="51"/>
+      <c r="L209" s="51"/>
+      <c r="M209" s="51"/>
+      <c r="N209" s="51"/>
+      <c r="O209" s="51"/>
+      <c r="P209" s="51"/>
+      <c r="Q209" s="51"/>
+      <c r="R209" s="51"/>
+      <c r="S209" s="51"/>
+      <c r="T209" s="52"/>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E210" s="53"/>
+      <c r="F210" s="54"/>
+      <c r="G210" s="54"/>
+      <c r="H210" s="54"/>
+      <c r="I210" s="54"/>
+      <c r="J210" s="54"/>
+      <c r="K210" s="54"/>
+      <c r="L210" s="54"/>
+      <c r="M210" s="54"/>
+      <c r="N210" s="54"/>
+      <c r="O210" s="54"/>
+      <c r="P210" s="54"/>
+      <c r="Q210" s="54"/>
+      <c r="R210" s="54"/>
+      <c r="S210" s="54"/>
+      <c r="T210" s="55"/>
+    </row>
+    <row r="212" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="A212" s="19">
         <v>17</v>
       </c>
-      <c r="B211" s="15"/>
-      <c r="C211" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D211" s="15"/>
-      <c r="E211" s="15"/>
-      <c r="F211" s="15"/>
-      <c r="G211" s="15"/>
-      <c r="H211" s="15"/>
-      <c r="I211" s="15"/>
-      <c r="J211" s="15"/>
-      <c r="K211" s="15"/>
-      <c r="L211" s="15"/>
-      <c r="M211" s="15"/>
-      <c r="N211" s="15"/>
-      <c r="O211" s="15"/>
-      <c r="P211" s="15"/>
-      <c r="Q211" s="15"/>
-      <c r="R211" s="15"/>
-      <c r="S211" s="15"/>
-      <c r="T211" s="15"/>
-      <c r="U211" s="15"/>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C212" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E212" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="F212" s="51"/>
-      <c r="G212" s="51"/>
-      <c r="H212" s="51"/>
-      <c r="I212" s="51"/>
-      <c r="J212" s="51"/>
-      <c r="K212" s="51"/>
-      <c r="L212" s="51"/>
-      <c r="M212" s="51"/>
-      <c r="N212" s="51"/>
-      <c r="O212" s="52"/>
-      <c r="Q212" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R212" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="S212" s="69"/>
-      <c r="T212" s="70"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="15"/>
+      <c r="I212" s="15"/>
+      <c r="J212" s="15"/>
+      <c r="K212" s="15"/>
+      <c r="L212" s="15"/>
+      <c r="M212" s="15"/>
+      <c r="N212" s="15"/>
+      <c r="O212" s="15"/>
+      <c r="P212" s="15"/>
+      <c r="Q212" s="15"/>
+      <c r="R212" s="15"/>
+      <c r="S212" s="15"/>
+      <c r="T212" s="15"/>
+      <c r="U212" s="15"/>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C213" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E213" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F213" s="51"/>
-      <c r="G213" s="51"/>
-      <c r="H213" s="51"/>
-      <c r="I213" s="51"/>
-      <c r="J213" s="51"/>
-      <c r="K213" s="51"/>
-      <c r="L213" s="52"/>
-      <c r="M213" s="11"/>
-      <c r="N213" s="11"/>
-      <c r="O213" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="E213" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F213" s="57"/>
+      <c r="G213" s="57"/>
+      <c r="H213" s="57"/>
+      <c r="I213" s="57"/>
+      <c r="J213" s="57"/>
+      <c r="K213" s="57"/>
+      <c r="L213" s="57"/>
+      <c r="M213" s="57"/>
+      <c r="N213" s="57"/>
+      <c r="O213" s="58"/>
+      <c r="Q213" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R213" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="S213" s="72"/>
+      <c r="T213" s="73"/>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C214" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E214" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F214" s="57"/>
+      <c r="G214" s="57"/>
+      <c r="H214" s="57"/>
+      <c r="I214" s="57"/>
+      <c r="J214" s="57"/>
+      <c r="K214" s="57"/>
+      <c r="L214" s="58"/>
+      <c r="M214" s="11"/>
+      <c r="N214" s="11"/>
+      <c r="O214" s="11"/>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C215" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E214" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="F214" s="63"/>
-      <c r="G214" s="63"/>
-      <c r="H214" s="63"/>
-      <c r="I214" s="63"/>
-      <c r="J214" s="63"/>
-      <c r="K214" s="63"/>
-      <c r="L214" s="63"/>
-      <c r="M214" s="63"/>
-      <c r="N214" s="63"/>
-      <c r="O214" s="63"/>
-      <c r="P214" s="63"/>
-      <c r="Q214" s="63"/>
-      <c r="R214" s="63"/>
-      <c r="S214" s="63"/>
-      <c r="T214" s="64"/>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C215" s="10"/>
-      <c r="E215" s="12"/>
-      <c r="F215" s="12"/>
-      <c r="G215" s="12"/>
-      <c r="H215" s="12"/>
-      <c r="I215" s="12"/>
-      <c r="J215" s="12"/>
-      <c r="K215" s="12"/>
-      <c r="L215" s="12"/>
-      <c r="M215" s="12"/>
-      <c r="N215" s="12"/>
-      <c r="O215" s="12"/>
-      <c r="P215" s="12"/>
-      <c r="Q215" s="12"/>
-      <c r="R215" s="12"/>
-      <c r="S215" s="12"/>
-      <c r="T215" s="12"/>
-    </row>
-    <row r="216" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="E216" s="8" t="s">
+      <c r="E215" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="F215" s="75"/>
+      <c r="G215" s="75"/>
+      <c r="H215" s="75"/>
+      <c r="I215" s="75"/>
+      <c r="J215" s="75"/>
+      <c r="K215" s="75"/>
+      <c r="L215" s="75"/>
+      <c r="M215" s="75"/>
+      <c r="N215" s="75"/>
+      <c r="O215" s="75"/>
+      <c r="P215" s="75"/>
+      <c r="Q215" s="75"/>
+      <c r="R215" s="75"/>
+      <c r="S215" s="75"/>
+      <c r="T215" s="76"/>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C216" s="10"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="J216" s="12"/>
+      <c r="K216" s="12"/>
+      <c r="L216" s="12"/>
+      <c r="M216" s="12"/>
+      <c r="N216" s="12"/>
+      <c r="O216" s="12"/>
+      <c r="P216" s="12"/>
+      <c r="Q216" s="12"/>
+      <c r="R216" s="12"/>
+      <c r="S216" s="12"/>
+      <c r="T216" s="12"/>
+    </row>
+    <row r="217" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="E217" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F216" s="8" t="s">
+      <c r="F217" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G216" s="8" t="s">
+      <c r="G217" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H216" s="8" t="s">
+      <c r="H217" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I216" s="8" t="s">
+      <c r="I217" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J216" s="6"/>
-      <c r="L216" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M216" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="N216" s="66"/>
-      <c r="O216" s="66"/>
-      <c r="P216" s="66"/>
-      <c r="Q216" s="66"/>
-      <c r="R216" s="66"/>
-      <c r="S216" s="66"/>
-      <c r="T216" s="67"/>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E217" s="9"/>
-      <c r="F217" s="17"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="7"/>
-      <c r="I217" s="7"/>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C219" s="10" t="s">
+      <c r="J217" s="6"/>
+      <c r="L217" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M217" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="N217" s="69"/>
+      <c r="O217" s="69"/>
+      <c r="P217" s="69"/>
+      <c r="Q217" s="69"/>
+      <c r="R217" s="69"/>
+      <c r="S217" s="69"/>
+      <c r="T217" s="70"/>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E218" s="9"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="7"/>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C220" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D219" s="10"/>
-      <c r="E219" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="F219" s="51"/>
-      <c r="G219" s="51"/>
-      <c r="H219" s="51"/>
-      <c r="I219" s="51"/>
-      <c r="J219" s="51"/>
-      <c r="K219" s="51"/>
-      <c r="L219" s="51"/>
-      <c r="M219" s="51"/>
-      <c r="N219" s="51"/>
-      <c r="O219" s="52"/>
-      <c r="Q219" s="10" t="s">
+      <c r="D220" s="10"/>
+      <c r="E220" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F220" s="57"/>
+      <c r="G220" s="57"/>
+      <c r="H220" s="57"/>
+      <c r="I220" s="57"/>
+      <c r="J220" s="57"/>
+      <c r="K220" s="57"/>
+      <c r="L220" s="57"/>
+      <c r="M220" s="57"/>
+      <c r="N220" s="57"/>
+      <c r="O220" s="58"/>
+      <c r="Q220" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R219" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="S219" s="51"/>
-      <c r="T219" s="52"/>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C221" t="s">
+      <c r="R220" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="S220" s="57"/>
+      <c r="T220" s="58"/>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
         <v>28</v>
       </c>
-      <c r="E221" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="F221" s="57"/>
-      <c r="G221" s="57"/>
-      <c r="H221" s="57"/>
-      <c r="I221" s="57"/>
-      <c r="J221" s="57"/>
-      <c r="K221" s="57"/>
-      <c r="L221" s="57"/>
-      <c r="M221" s="57"/>
-      <c r="N221" s="57"/>
-      <c r="O221" s="57"/>
-      <c r="P221" s="57"/>
-      <c r="Q221" s="57"/>
-      <c r="R221" s="57"/>
-      <c r="S221" s="57"/>
-      <c r="T221" s="58"/>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E222" s="59"/>
-      <c r="F222" s="60"/>
-      <c r="G222" s="60"/>
-      <c r="H222" s="60"/>
-      <c r="I222" s="60"/>
-      <c r="J222" s="60"/>
-      <c r="K222" s="60"/>
-      <c r="L222" s="60"/>
-      <c r="M222" s="60"/>
-      <c r="N222" s="60"/>
-      <c r="O222" s="60"/>
-      <c r="P222" s="60"/>
-      <c r="Q222" s="60"/>
-      <c r="R222" s="60"/>
-      <c r="S222" s="60"/>
-      <c r="T222" s="61"/>
-    </row>
-    <row r="224" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A224" s="19">
+      <c r="E222" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F222" s="51"/>
+      <c r="G222" s="51"/>
+      <c r="H222" s="51"/>
+      <c r="I222" s="51"/>
+      <c r="J222" s="51"/>
+      <c r="K222" s="51"/>
+      <c r="L222" s="51"/>
+      <c r="M222" s="51"/>
+      <c r="N222" s="51"/>
+      <c r="O222" s="51"/>
+      <c r="P222" s="51"/>
+      <c r="Q222" s="51"/>
+      <c r="R222" s="51"/>
+      <c r="S222" s="51"/>
+      <c r="T222" s="52"/>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E223" s="53"/>
+      <c r="F223" s="54"/>
+      <c r="G223" s="54"/>
+      <c r="H223" s="54"/>
+      <c r="I223" s="54"/>
+      <c r="J223" s="54"/>
+      <c r="K223" s="54"/>
+      <c r="L223" s="54"/>
+      <c r="M223" s="54"/>
+      <c r="N223" s="54"/>
+      <c r="O223" s="54"/>
+      <c r="P223" s="54"/>
+      <c r="Q223" s="54"/>
+      <c r="R223" s="54"/>
+      <c r="S223" s="54"/>
+      <c r="T223" s="55"/>
+    </row>
+    <row r="225" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="A225" s="19">
         <v>18</v>
       </c>
-      <c r="B224" s="15"/>
-      <c r="C224" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D224" s="15"/>
-      <c r="E224" s="15"/>
-      <c r="F224" s="15"/>
-      <c r="G224" s="15"/>
-      <c r="H224" s="15"/>
-      <c r="I224" s="15"/>
-      <c r="J224" s="15"/>
-      <c r="K224" s="15"/>
-      <c r="L224" s="15"/>
-      <c r="M224" s="15"/>
-      <c r="N224" s="15"/>
-      <c r="O224" s="15"/>
-      <c r="P224" s="15"/>
-      <c r="Q224" s="15"/>
-      <c r="R224" s="15"/>
-      <c r="S224" s="15"/>
-      <c r="T224" s="15"/>
-      <c r="U224" s="15"/>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C225" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E225" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="F225" s="51"/>
-      <c r="G225" s="51"/>
-      <c r="H225" s="51"/>
-      <c r="I225" s="51"/>
-      <c r="J225" s="51"/>
-      <c r="K225" s="51"/>
-      <c r="L225" s="51"/>
-      <c r="M225" s="51"/>
-      <c r="N225" s="51"/>
-      <c r="O225" s="52"/>
-      <c r="Q225" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R225" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="S225" s="69"/>
-      <c r="T225" s="70"/>
+      <c r="B225" s="15"/>
+      <c r="C225" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="15"/>
+      <c r="G225" s="15"/>
+      <c r="H225" s="15"/>
+      <c r="I225" s="15"/>
+      <c r="J225" s="15"/>
+      <c r="K225" s="15"/>
+      <c r="L225" s="15"/>
+      <c r="M225" s="15"/>
+      <c r="N225" s="15"/>
+      <c r="O225" s="15"/>
+      <c r="P225" s="15"/>
+      <c r="Q225" s="15"/>
+      <c r="R225" s="15"/>
+      <c r="S225" s="15"/>
+      <c r="T225" s="15"/>
+      <c r="U225" s="15"/>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C226" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E226" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F226" s="51"/>
-      <c r="G226" s="51"/>
-      <c r="H226" s="51"/>
-      <c r="I226" s="51"/>
-      <c r="J226" s="51"/>
-      <c r="K226" s="51"/>
-      <c r="L226" s="52"/>
-      <c r="M226" s="11"/>
-      <c r="N226" s="11"/>
-      <c r="O226" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="E226" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F226" s="57"/>
+      <c r="G226" s="57"/>
+      <c r="H226" s="57"/>
+      <c r="I226" s="57"/>
+      <c r="J226" s="57"/>
+      <c r="K226" s="57"/>
+      <c r="L226" s="57"/>
+      <c r="M226" s="57"/>
+      <c r="N226" s="57"/>
+      <c r="O226" s="58"/>
+      <c r="Q226" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R226" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="S226" s="72"/>
+      <c r="T226" s="73"/>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C227" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E227" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F227" s="57"/>
+      <c r="G227" s="57"/>
+      <c r="H227" s="57"/>
+      <c r="I227" s="57"/>
+      <c r="J227" s="57"/>
+      <c r="K227" s="57"/>
+      <c r="L227" s="58"/>
+      <c r="M227" s="11"/>
+      <c r="N227" s="11"/>
+      <c r="O227" s="11"/>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C228" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E227" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="F227" s="63"/>
-      <c r="G227" s="63"/>
-      <c r="H227" s="63"/>
-      <c r="I227" s="63"/>
-      <c r="J227" s="63"/>
-      <c r="K227" s="63"/>
-      <c r="L227" s="63"/>
-      <c r="M227" s="63"/>
-      <c r="N227" s="63"/>
-      <c r="O227" s="63"/>
-      <c r="P227" s="63"/>
-      <c r="Q227" s="63"/>
-      <c r="R227" s="63"/>
-      <c r="S227" s="63"/>
-      <c r="T227" s="64"/>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C228" s="10"/>
-      <c r="E228" s="12"/>
-      <c r="F228" s="12"/>
-      <c r="G228" s="12"/>
-      <c r="H228" s="12"/>
-      <c r="I228" s="12"/>
-      <c r="J228" s="12"/>
-      <c r="K228" s="12"/>
-      <c r="L228" s="12"/>
-      <c r="M228" s="12"/>
-      <c r="N228" s="12"/>
-      <c r="O228" s="12"/>
-      <c r="P228" s="12"/>
-      <c r="Q228" s="12"/>
-      <c r="R228" s="12"/>
-      <c r="S228" s="12"/>
-      <c r="T228" s="12"/>
-    </row>
-    <row r="229" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="E229" s="8" t="s">
+      <c r="E228" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F228" s="75"/>
+      <c r="G228" s="75"/>
+      <c r="H228" s="75"/>
+      <c r="I228" s="75"/>
+      <c r="J228" s="75"/>
+      <c r="K228" s="75"/>
+      <c r="L228" s="75"/>
+      <c r="M228" s="75"/>
+      <c r="N228" s="75"/>
+      <c r="O228" s="75"/>
+      <c r="P228" s="75"/>
+      <c r="Q228" s="75"/>
+      <c r="R228" s="75"/>
+      <c r="S228" s="75"/>
+      <c r="T228" s="76"/>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C229" s="10"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="12"/>
+      <c r="J229" s="12"/>
+      <c r="K229" s="12"/>
+      <c r="L229" s="12"/>
+      <c r="M229" s="12"/>
+      <c r="N229" s="12"/>
+      <c r="O229" s="12"/>
+      <c r="P229" s="12"/>
+      <c r="Q229" s="12"/>
+      <c r="R229" s="12"/>
+      <c r="S229" s="12"/>
+      <c r="T229" s="12"/>
+    </row>
+    <row r="230" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="E230" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F229" s="8" t="s">
+      <c r="F230" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G229" s="8" t="s">
+      <c r="G230" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H229" s="8" t="s">
+      <c r="H230" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I229" s="8" t="s">
+      <c r="I230" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J229" s="6"/>
-      <c r="L229" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M229" s="65" t="s">
+      <c r="J230" s="6"/>
+      <c r="L230" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M230" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="N230" s="69"/>
+      <c r="O230" s="69"/>
+      <c r="P230" s="69"/>
+      <c r="Q230" s="69"/>
+      <c r="R230" s="69"/>
+      <c r="S230" s="69"/>
+      <c r="T230" s="70"/>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E231" s="17"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="7"/>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C233" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D233" s="10"/>
+      <c r="E233" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F233" s="57"/>
+      <c r="G233" s="57"/>
+      <c r="H233" s="57"/>
+      <c r="I233" s="57"/>
+      <c r="J233" s="57"/>
+      <c r="K233" s="57"/>
+      <c r="L233" s="57"/>
+      <c r="M233" s="57"/>
+      <c r="N233" s="57"/>
+      <c r="O233" s="58"/>
+      <c r="Q233" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R233" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="S233" s="57"/>
+      <c r="T233" s="58"/>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="N229" s="66"/>
-      <c r="O229" s="66"/>
-      <c r="P229" s="66"/>
-      <c r="Q229" s="66"/>
-      <c r="R229" s="66"/>
-      <c r="S229" s="66"/>
-      <c r="T229" s="67"/>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E230" s="9"/>
-      <c r="F230" s="17"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="7"/>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C232" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D232" s="10"/>
-      <c r="E232" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="F232" s="51"/>
-      <c r="G232" s="51"/>
-      <c r="H232" s="51"/>
-      <c r="I232" s="51"/>
-      <c r="J232" s="51"/>
-      <c r="K232" s="51"/>
-      <c r="L232" s="51"/>
-      <c r="M232" s="51"/>
-      <c r="N232" s="51"/>
-      <c r="O232" s="52"/>
-      <c r="Q232" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R232" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="S232" s="51"/>
-      <c r="T232" s="52"/>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C234" t="s">
-        <v>28</v>
-      </c>
-      <c r="E234" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="F234" s="57"/>
-      <c r="G234" s="57"/>
-      <c r="H234" s="57"/>
-      <c r="I234" s="57"/>
-      <c r="J234" s="57"/>
-      <c r="K234" s="57"/>
-      <c r="L234" s="57"/>
-      <c r="M234" s="57"/>
-      <c r="N234" s="57"/>
-      <c r="O234" s="57"/>
-      <c r="P234" s="57"/>
-      <c r="Q234" s="57"/>
-      <c r="R234" s="57"/>
-      <c r="S234" s="57"/>
-      <c r="T234" s="58"/>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E235" s="59"/>
-      <c r="F235" s="60"/>
-      <c r="G235" s="60"/>
-      <c r="H235" s="60"/>
-      <c r="I235" s="60"/>
-      <c r="J235" s="60"/>
-      <c r="K235" s="60"/>
-      <c r="L235" s="60"/>
-      <c r="M235" s="60"/>
-      <c r="N235" s="60"/>
-      <c r="O235" s="60"/>
-      <c r="P235" s="60"/>
-      <c r="Q235" s="60"/>
-      <c r="R235" s="60"/>
-      <c r="S235" s="60"/>
-      <c r="T235" s="61"/>
-    </row>
-    <row r="237" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A237" s="19">
-        <v>19</v>
-      </c>
-      <c r="B237" s="15"/>
-      <c r="C237" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D237" s="15"/>
-      <c r="E237" s="15"/>
-      <c r="F237" s="15"/>
-      <c r="G237" s="15"/>
-      <c r="H237" s="15"/>
-      <c r="I237" s="15"/>
-      <c r="J237" s="15"/>
-      <c r="K237" s="15"/>
-      <c r="L237" s="15"/>
-      <c r="M237" s="15"/>
-      <c r="N237" s="15"/>
-      <c r="O237" s="15"/>
-      <c r="P237" s="15"/>
-      <c r="Q237" s="15"/>
-      <c r="R237" s="15"/>
-      <c r="S237" s="15"/>
-      <c r="T237" s="15"/>
-      <c r="U237" s="15"/>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C238" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E238" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F238" s="51"/>
-      <c r="G238" s="51"/>
-      <c r="H238" s="51"/>
-      <c r="I238" s="51"/>
-      <c r="J238" s="51"/>
-      <c r="K238" s="51"/>
-      <c r="L238" s="51"/>
-      <c r="M238" s="51"/>
-      <c r="N238" s="51"/>
-      <c r="O238" s="52"/>
-      <c r="Q238" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R238" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="S238" s="69"/>
-      <c r="T238" s="70"/>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C239" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E239" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F239" s="51"/>
-      <c r="G239" s="51"/>
-      <c r="H239" s="51"/>
-      <c r="I239" s="51"/>
-      <c r="J239" s="51"/>
-      <c r="K239" s="51"/>
-      <c r="L239" s="52"/>
-      <c r="M239" s="11"/>
-      <c r="N239" s="11"/>
-      <c r="O239" s="11"/>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C240" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E240" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="F240" s="63"/>
-      <c r="G240" s="63"/>
-      <c r="H240" s="63"/>
-      <c r="I240" s="63"/>
-      <c r="J240" s="63"/>
-      <c r="K240" s="63"/>
-      <c r="L240" s="63"/>
-      <c r="M240" s="63"/>
-      <c r="N240" s="63"/>
-      <c r="O240" s="63"/>
-      <c r="P240" s="63"/>
-      <c r="Q240" s="63"/>
-      <c r="R240" s="63"/>
-      <c r="S240" s="63"/>
-      <c r="T240" s="64"/>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C241" s="10"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
-      <c r="G241" s="12"/>
-      <c r="H241" s="12"/>
-      <c r="I241" s="12"/>
-      <c r="J241" s="12"/>
-      <c r="K241" s="12"/>
-      <c r="L241" s="12"/>
-      <c r="M241" s="12"/>
-      <c r="N241" s="12"/>
-      <c r="O241" s="12"/>
-      <c r="P241" s="12"/>
-      <c r="Q241" s="12"/>
-      <c r="R241" s="12"/>
-      <c r="S241" s="12"/>
-      <c r="T241" s="12"/>
-    </row>
-    <row r="242" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="E242" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F242" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G242" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H242" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I242" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J242" s="6"/>
-      <c r="L242" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M242" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="N242" s="66"/>
-      <c r="O242" s="66"/>
-      <c r="P242" s="66"/>
-      <c r="Q242" s="66"/>
-      <c r="R242" s="66"/>
-      <c r="S242" s="66"/>
-      <c r="T242" s="67"/>
-    </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E243" s="9"/>
-      <c r="F243" s="17"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-      <c r="I243" s="7"/>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C245" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D245" s="10"/>
-      <c r="E245" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F245" s="51"/>
-      <c r="G245" s="51"/>
-      <c r="H245" s="51"/>
-      <c r="I245" s="51"/>
-      <c r="J245" s="51"/>
-      <c r="K245" s="51"/>
-      <c r="L245" s="51"/>
-      <c r="M245" s="51"/>
-      <c r="N245" s="51"/>
-      <c r="O245" s="52"/>
-      <c r="Q245" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R245" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="S245" s="51"/>
-      <c r="T245" s="52"/>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C247" t="s">
-        <v>28</v>
-      </c>
-      <c r="E247" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F247" s="57"/>
-      <c r="G247" s="57"/>
-      <c r="H247" s="57"/>
-      <c r="I247" s="57"/>
-      <c r="J247" s="57"/>
-      <c r="K247" s="57"/>
-      <c r="L247" s="57"/>
-      <c r="M247" s="57"/>
-      <c r="N247" s="57"/>
-      <c r="O247" s="57"/>
-      <c r="P247" s="57"/>
-      <c r="Q247" s="57"/>
-      <c r="R247" s="57"/>
-      <c r="S247" s="57"/>
-      <c r="T247" s="58"/>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E248" s="59"/>
-      <c r="F248" s="60"/>
-      <c r="G248" s="60"/>
-      <c r="H248" s="60"/>
-      <c r="I248" s="60"/>
-      <c r="J248" s="60"/>
-      <c r="K248" s="60"/>
-      <c r="L248" s="60"/>
-      <c r="M248" s="60"/>
-      <c r="N248" s="60"/>
-      <c r="O248" s="60"/>
-      <c r="P248" s="60"/>
-      <c r="Q248" s="60"/>
-      <c r="R248" s="60"/>
-      <c r="S248" s="60"/>
-      <c r="T248" s="61"/>
-    </row>
-    <row r="250" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A250" s="19">
-        <v>20</v>
-      </c>
-      <c r="B250" s="15"/>
-      <c r="C250" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D250" s="15"/>
-      <c r="E250" s="15"/>
-      <c r="F250" s="15"/>
-      <c r="G250" s="15"/>
-      <c r="H250" s="15"/>
-      <c r="I250" s="15"/>
-      <c r="J250" s="15"/>
-      <c r="K250" s="15"/>
-      <c r="L250" s="15"/>
-      <c r="M250" s="15"/>
-      <c r="N250" s="15"/>
-      <c r="O250" s="15"/>
-      <c r="P250" s="15"/>
-      <c r="Q250" s="15"/>
-      <c r="R250" s="15"/>
-      <c r="S250" s="15"/>
-      <c r="T250" s="15"/>
-      <c r="U250" s="15"/>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C251" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E251" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F251" s="51"/>
-      <c r="G251" s="51"/>
-      <c r="H251" s="51"/>
-      <c r="I251" s="51"/>
-      <c r="J251" s="51"/>
-      <c r="K251" s="51"/>
-      <c r="L251" s="51"/>
-      <c r="M251" s="51"/>
-      <c r="N251" s="51"/>
-      <c r="O251" s="52"/>
-      <c r="Q251" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R251" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="S251" s="69"/>
-      <c r="T251" s="70"/>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C252" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E252" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F252" s="51"/>
-      <c r="G252" s="51"/>
-      <c r="H252" s="51"/>
-      <c r="I252" s="51"/>
-      <c r="J252" s="51"/>
-      <c r="K252" s="51"/>
-      <c r="L252" s="52"/>
-      <c r="M252" s="11"/>
-      <c r="N252" s="11"/>
-      <c r="O252" s="11"/>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C253" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E253" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="F253" s="63"/>
-      <c r="G253" s="63"/>
-      <c r="H253" s="63"/>
-      <c r="I253" s="63"/>
-      <c r="J253" s="63"/>
-      <c r="K253" s="63"/>
-      <c r="L253" s="63"/>
-      <c r="M253" s="63"/>
-      <c r="N253" s="63"/>
-      <c r="O253" s="63"/>
-      <c r="P253" s="63"/>
-      <c r="Q253" s="63"/>
-      <c r="R253" s="63"/>
-      <c r="S253" s="63"/>
-      <c r="T253" s="64"/>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C254" s="10"/>
-      <c r="E254" s="12"/>
-      <c r="F254" s="12"/>
-      <c r="G254" s="12"/>
-      <c r="H254" s="12"/>
-      <c r="I254" s="12"/>
-      <c r="J254" s="12"/>
-      <c r="K254" s="12"/>
-      <c r="L254" s="12"/>
-      <c r="M254" s="12"/>
-      <c r="N254" s="12"/>
-      <c r="O254" s="12"/>
-      <c r="P254" s="12"/>
-      <c r="Q254" s="12"/>
-      <c r="R254" s="12"/>
-      <c r="S254" s="12"/>
-      <c r="T254" s="12"/>
-    </row>
-    <row r="255" spans="1:21" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="E255" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F255" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G255" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H255" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I255" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J255" s="6"/>
-      <c r="L255" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M255" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="N255" s="66"/>
-      <c r="O255" s="66"/>
-      <c r="P255" s="66"/>
-      <c r="Q255" s="66"/>
-      <c r="R255" s="66"/>
-      <c r="S255" s="66"/>
-      <c r="T255" s="67"/>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E256" s="17"/>
-      <c r="F256" s="9"/>
-      <c r="G256" s="7"/>
-      <c r="H256" s="7"/>
-      <c r="I256" s="7"/>
-    </row>
-    <row r="258" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C258" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D258" s="10"/>
-      <c r="E258" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F258" s="51"/>
-      <c r="G258" s="51"/>
-      <c r="H258" s="51"/>
-      <c r="I258" s="51"/>
-      <c r="J258" s="51"/>
-      <c r="K258" s="51"/>
-      <c r="L258" s="51"/>
-      <c r="M258" s="51"/>
-      <c r="N258" s="51"/>
-      <c r="O258" s="52"/>
-      <c r="Q258" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R258" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="S258" s="51"/>
-      <c r="T258" s="52"/>
-    </row>
-    <row r="260" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C260" t="s">
-        <v>28</v>
-      </c>
-      <c r="E260" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="F260" s="57"/>
-      <c r="G260" s="57"/>
-      <c r="H260" s="57"/>
-      <c r="I260" s="57"/>
-      <c r="J260" s="57"/>
-      <c r="K260" s="57"/>
-      <c r="L260" s="57"/>
-      <c r="M260" s="57"/>
-      <c r="N260" s="57"/>
-      <c r="O260" s="57"/>
-      <c r="P260" s="57"/>
-      <c r="Q260" s="57"/>
-      <c r="R260" s="57"/>
-      <c r="S260" s="57"/>
-      <c r="T260" s="58"/>
-    </row>
-    <row r="261" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="E261" s="59"/>
-      <c r="F261" s="60"/>
-      <c r="G261" s="60"/>
-      <c r="H261" s="60"/>
-      <c r="I261" s="60"/>
-      <c r="J261" s="60"/>
-      <c r="K261" s="60"/>
-      <c r="L261" s="60"/>
-      <c r="M261" s="60"/>
-      <c r="N261" s="60"/>
-      <c r="O261" s="60"/>
-      <c r="P261" s="60"/>
-      <c r="Q261" s="60"/>
-      <c r="R261" s="60"/>
-      <c r="S261" s="60"/>
-      <c r="T261" s="61"/>
+      <c r="F235" s="51"/>
+      <c r="G235" s="51"/>
+      <c r="H235" s="51"/>
+      <c r="I235" s="51"/>
+      <c r="J235" s="51"/>
+      <c r="K235" s="51"/>
+      <c r="L235" s="51"/>
+      <c r="M235" s="51"/>
+      <c r="N235" s="51"/>
+      <c r="O235" s="51"/>
+      <c r="P235" s="51"/>
+      <c r="Q235" s="51"/>
+      <c r="R235" s="51"/>
+      <c r="S235" s="51"/>
+      <c r="T235" s="52"/>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E236" s="53"/>
+      <c r="F236" s="54"/>
+      <c r="G236" s="54"/>
+      <c r="H236" s="54"/>
+      <c r="I236" s="54"/>
+      <c r="J236" s="54"/>
+      <c r="K236" s="54"/>
+      <c r="L236" s="54"/>
+      <c r="M236" s="54"/>
+      <c r="N236" s="54"/>
+      <c r="O236" s="54"/>
+      <c r="P236" s="54"/>
+      <c r="Q236" s="54"/>
+      <c r="R236" s="54"/>
+      <c r="S236" s="54"/>
+      <c r="T236" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="E65:T66"/>
-    <mergeCell ref="E24:O24"/>
-    <mergeCell ref="E26:T27"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="E4:O4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="E6:T6"/>
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="E13:T14"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="E57:L57"/>
-    <mergeCell ref="M60:T60"/>
-    <mergeCell ref="E84:T84"/>
-    <mergeCell ref="E89:O89"/>
-    <mergeCell ref="R89:T89"/>
-    <mergeCell ref="E91:T92"/>
-    <mergeCell ref="E83:L83"/>
-    <mergeCell ref="M86:T86"/>
-    <mergeCell ref="E82:O82"/>
-    <mergeCell ref="R82:T82"/>
-    <mergeCell ref="E69:O69"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="E71:T71"/>
-    <mergeCell ref="E76:O76"/>
-    <mergeCell ref="R76:T76"/>
-    <mergeCell ref="E78:T79"/>
-    <mergeCell ref="E70:L70"/>
-    <mergeCell ref="M73:T73"/>
-    <mergeCell ref="E56:O56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="E58:T58"/>
-    <mergeCell ref="E63:O63"/>
-    <mergeCell ref="R63:T63"/>
+  <mergeCells count="143">
+    <mergeCell ref="E201:L201"/>
+    <mergeCell ref="E202:T202"/>
+    <mergeCell ref="E188:L188"/>
+    <mergeCell ref="E189:T189"/>
+    <mergeCell ref="M191:T191"/>
+    <mergeCell ref="E194:O194"/>
+    <mergeCell ref="R194:T194"/>
+    <mergeCell ref="E214:L214"/>
+    <mergeCell ref="E215:T215"/>
+    <mergeCell ref="M217:T217"/>
+    <mergeCell ref="E220:O220"/>
+    <mergeCell ref="R220:T220"/>
+    <mergeCell ref="M204:T204"/>
+    <mergeCell ref="E207:O207"/>
+    <mergeCell ref="R207:T207"/>
+    <mergeCell ref="E209:T210"/>
+    <mergeCell ref="E213:O213"/>
+    <mergeCell ref="R213:T213"/>
+    <mergeCell ref="M230:T230"/>
+    <mergeCell ref="E233:O233"/>
+    <mergeCell ref="R233:T233"/>
+    <mergeCell ref="E235:T236"/>
+    <mergeCell ref="E222:T223"/>
+    <mergeCell ref="E226:O226"/>
+    <mergeCell ref="R226:T226"/>
+    <mergeCell ref="E227:L227"/>
+    <mergeCell ref="E228:T228"/>
+    <mergeCell ref="E181:O181"/>
+    <mergeCell ref="R181:T181"/>
+    <mergeCell ref="E183:T184"/>
+    <mergeCell ref="E187:O187"/>
+    <mergeCell ref="R187:T187"/>
+    <mergeCell ref="E196:T197"/>
+    <mergeCell ref="E200:O200"/>
+    <mergeCell ref="E174:O174"/>
+    <mergeCell ref="R174:T174"/>
+    <mergeCell ref="E175:L175"/>
+    <mergeCell ref="E176:T176"/>
+    <mergeCell ref="M178:T178"/>
+    <mergeCell ref="R200:T200"/>
+    <mergeCell ref="M165:T165"/>
+    <mergeCell ref="E168:O168"/>
+    <mergeCell ref="R168:T168"/>
+    <mergeCell ref="E170:T171"/>
+    <mergeCell ref="E143:T144"/>
+    <mergeCell ref="E161:O161"/>
+    <mergeCell ref="R161:T161"/>
+    <mergeCell ref="E162:L162"/>
+    <mergeCell ref="E163:T163"/>
+    <mergeCell ref="E147:O147"/>
+    <mergeCell ref="R147:T147"/>
+    <mergeCell ref="E148:L148"/>
+    <mergeCell ref="E135:L135"/>
+    <mergeCell ref="E136:T136"/>
+    <mergeCell ref="M138:T138"/>
+    <mergeCell ref="E141:O141"/>
+    <mergeCell ref="R141:T141"/>
+    <mergeCell ref="E149:T149"/>
+    <mergeCell ref="M151:T151"/>
+    <mergeCell ref="E154:O154"/>
+    <mergeCell ref="R154:T154"/>
+    <mergeCell ref="E156:T157"/>
+    <mergeCell ref="M125:T125"/>
+    <mergeCell ref="E128:O128"/>
+    <mergeCell ref="R128:T128"/>
+    <mergeCell ref="E130:T131"/>
+    <mergeCell ref="E134:O134"/>
+    <mergeCell ref="R134:T134"/>
+    <mergeCell ref="E117:T118"/>
+    <mergeCell ref="E121:O121"/>
+    <mergeCell ref="R121:T121"/>
+    <mergeCell ref="E122:L122"/>
+    <mergeCell ref="E123:T123"/>
+    <mergeCell ref="E109:L109"/>
+    <mergeCell ref="E110:T110"/>
+    <mergeCell ref="M112:T112"/>
+    <mergeCell ref="E115:O115"/>
+    <mergeCell ref="R115:T115"/>
+    <mergeCell ref="E102:O102"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="E104:T105"/>
+    <mergeCell ref="E108:O108"/>
+    <mergeCell ref="R108:T108"/>
     <mergeCell ref="E95:O95"/>
     <mergeCell ref="R95:T95"/>
     <mergeCell ref="E96:L96"/>
@@ -16420,105 +16143,42 @@
     <mergeCell ref="R43:T43"/>
     <mergeCell ref="E45:T45"/>
     <mergeCell ref="E50:O50"/>
-    <mergeCell ref="E109:L109"/>
-    <mergeCell ref="E110:T110"/>
-    <mergeCell ref="M112:T112"/>
-    <mergeCell ref="E115:O115"/>
-    <mergeCell ref="R115:T115"/>
-    <mergeCell ref="E102:O102"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="E104:T105"/>
-    <mergeCell ref="E108:O108"/>
-    <mergeCell ref="R108:T108"/>
-    <mergeCell ref="M125:T125"/>
-    <mergeCell ref="E128:O128"/>
-    <mergeCell ref="R128:T128"/>
-    <mergeCell ref="E130:T131"/>
-    <mergeCell ref="E134:O134"/>
-    <mergeCell ref="R134:T134"/>
-    <mergeCell ref="E117:T118"/>
-    <mergeCell ref="E121:O121"/>
-    <mergeCell ref="R121:T121"/>
-    <mergeCell ref="E122:L122"/>
-    <mergeCell ref="E123:T123"/>
-    <mergeCell ref="R173:T173"/>
-    <mergeCell ref="E147:O147"/>
-    <mergeCell ref="R147:T147"/>
-    <mergeCell ref="E148:L148"/>
-    <mergeCell ref="E135:L135"/>
-    <mergeCell ref="E136:T136"/>
-    <mergeCell ref="M138:T138"/>
-    <mergeCell ref="E141:O141"/>
-    <mergeCell ref="R141:T141"/>
-    <mergeCell ref="M190:T190"/>
-    <mergeCell ref="E193:O193"/>
-    <mergeCell ref="R193:T193"/>
-    <mergeCell ref="E195:T196"/>
-    <mergeCell ref="E143:T144"/>
-    <mergeCell ref="E186:O186"/>
-    <mergeCell ref="R186:T186"/>
-    <mergeCell ref="E187:L187"/>
-    <mergeCell ref="E188:T188"/>
-    <mergeCell ref="M177:T177"/>
-    <mergeCell ref="E180:O180"/>
-    <mergeCell ref="R180:T180"/>
-    <mergeCell ref="E182:T183"/>
-    <mergeCell ref="E174:L174"/>
-    <mergeCell ref="E175:T175"/>
-    <mergeCell ref="E160:O160"/>
-    <mergeCell ref="R160:T160"/>
-    <mergeCell ref="E161:L161"/>
-    <mergeCell ref="E162:T162"/>
-    <mergeCell ref="M164:T164"/>
-    <mergeCell ref="E167:O167"/>
-    <mergeCell ref="R167:T167"/>
-    <mergeCell ref="E169:T170"/>
-    <mergeCell ref="E173:O173"/>
-    <mergeCell ref="E206:O206"/>
-    <mergeCell ref="R206:T206"/>
-    <mergeCell ref="E208:T209"/>
-    <mergeCell ref="E212:O212"/>
-    <mergeCell ref="R212:T212"/>
-    <mergeCell ref="E221:T222"/>
-    <mergeCell ref="E225:O225"/>
-    <mergeCell ref="E199:O199"/>
-    <mergeCell ref="R199:T199"/>
-    <mergeCell ref="E200:L200"/>
-    <mergeCell ref="E201:T201"/>
-    <mergeCell ref="M203:T203"/>
-    <mergeCell ref="M255:T255"/>
-    <mergeCell ref="E258:O258"/>
-    <mergeCell ref="R258:T258"/>
-    <mergeCell ref="E260:T261"/>
-    <mergeCell ref="E247:T248"/>
-    <mergeCell ref="E251:O251"/>
-    <mergeCell ref="R251:T251"/>
-    <mergeCell ref="E252:L252"/>
-    <mergeCell ref="E253:T253"/>
-    <mergeCell ref="E149:T149"/>
-    <mergeCell ref="M151:T151"/>
-    <mergeCell ref="E154:O154"/>
-    <mergeCell ref="R154:T154"/>
-    <mergeCell ref="E156:T157"/>
-    <mergeCell ref="E239:L239"/>
-    <mergeCell ref="E240:T240"/>
-    <mergeCell ref="M242:T242"/>
-    <mergeCell ref="E245:O245"/>
-    <mergeCell ref="R245:T245"/>
-    <mergeCell ref="M229:T229"/>
-    <mergeCell ref="E232:O232"/>
-    <mergeCell ref="R232:T232"/>
-    <mergeCell ref="E234:T235"/>
-    <mergeCell ref="E238:O238"/>
-    <mergeCell ref="R238:T238"/>
-    <mergeCell ref="R225:T225"/>
-    <mergeCell ref="E226:L226"/>
-    <mergeCell ref="E227:T227"/>
-    <mergeCell ref="E213:L213"/>
-    <mergeCell ref="E214:T214"/>
-    <mergeCell ref="M216:T216"/>
-    <mergeCell ref="E219:O219"/>
-    <mergeCell ref="R219:T219"/>
+    <mergeCell ref="E84:T84"/>
+    <mergeCell ref="E89:O89"/>
+    <mergeCell ref="R89:T89"/>
+    <mergeCell ref="E91:T92"/>
+    <mergeCell ref="E83:L83"/>
+    <mergeCell ref="M86:T86"/>
+    <mergeCell ref="E82:O82"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="E69:O69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="E71:T71"/>
+    <mergeCell ref="E76:O76"/>
+    <mergeCell ref="R76:T76"/>
+    <mergeCell ref="E78:T79"/>
+    <mergeCell ref="E70:L70"/>
+    <mergeCell ref="M73:T73"/>
+    <mergeCell ref="E65:T66"/>
+    <mergeCell ref="E24:O24"/>
+    <mergeCell ref="E26:T27"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="E4:O4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="E6:T6"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="E13:T14"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="E57:L57"/>
+    <mergeCell ref="M60:T60"/>
+    <mergeCell ref="E56:O56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="E58:T58"/>
+    <mergeCell ref="E63:O63"/>
+    <mergeCell ref="R63:T63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16527,6 +16187,491 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="4" max="4" width="1.5546875" customWidth="1"/>
+    <col min="5" max="12" width="3.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="88.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
+      <c r="Q5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="66"/>
+      <c r="T5" s="67"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+      <c r="E9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="6"/>
+      <c r="L9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="70"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E10" s="9"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="58"/>
+      <c r="Q12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="52"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="55"/>
+    </row>
+    <row r="16" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="58"/>
+      <c r="Q18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="66"/>
+      <c r="T18" s="67"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C21" s="10"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+      <c r="E22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="6"/>
+      <c r="L22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="70"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E23" s="9"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="58"/>
+      <c r="Q25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="S25" s="57"/>
+      <c r="T25" s="58"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="52"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="55"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E27:T28"/>
+    <mergeCell ref="E18:O18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="E20:T20"/>
+    <mergeCell ref="M22:T22"/>
+    <mergeCell ref="E25:O25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="E12:O12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="E14:T15"/>
+    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="R5:T5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B6"/>
   <sheetViews>
@@ -16539,7 +16684,7 @@
     <row r="1" spans="2:2" ht="88.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:2" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B6" s="33" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -16548,7 +16693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B7"/>
   <sheetViews>
@@ -16561,7 +16706,7 @@
     <row r="1" spans="2:2" ht="89.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:2" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B7" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -16575,7 +16720,7 @@
   <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -16590,78 +16735,78 @@
   <sheetData>
     <row r="3" spans="2:6" ht="31.2" x14ac:dyDescent="0.6">
       <c r="D3" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>89</v>
-      </c>
       <c r="F7" s="31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>1</v>
@@ -16670,13 +16815,13 @@
     <row r="10" spans="2:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>1</v>
@@ -16685,43 +16830,43 @@
     <row r="11" spans="2:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>101</v>
-      </c>
       <c r="E11" s="31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>2</v>
@@ -16730,13 +16875,13 @@
     <row r="14" spans="2:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>7</v>
@@ -16745,13 +16890,13 @@
     <row r="15" spans="2:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>7</v>
@@ -16878,7 +17023,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
@@ -16957,7 +17102,7 @@
     </row>
     <row r="7" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -16993,7 +17138,7 @@
     </row>
     <row r="9" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -17060,38 +17205,38 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:6" ht="90" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F1" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="21" x14ac:dyDescent="0.3">
@@ -17099,22 +17244,22 @@
     </row>
     <row r="8" spans="2:6" ht="21" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C9" s="25" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C10" s="25" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C11" s="25" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -17136,43 +17281,43 @@
   <sheetData>
     <row r="1" spans="2:7" ht="90" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G1" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B9" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B10" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -17185,8 +17330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17202,28 +17347,28 @@
     </row>
     <row r="23" spans="3:4" ht="21" x14ac:dyDescent="0.3">
       <c r="C23" s="38" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D23"/>
     </row>
     <row r="24" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="D24" s="13" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="D25" s="13" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="D26" s="13" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="D27" s="39" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -17249,7 +17394,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G1" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17259,7 +17404,7 @@
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -17273,43 +17418,43 @@
     <row r="5" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="21"/>
       <c r="D5" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="21"/>
       <c r="D6" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="21"/>
       <c r="D7" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="21"/>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -17353,7 +17498,7 @@
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -17367,43 +17512,43 @@
     <row r="14" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="D14" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="21"/>
       <c r="D15" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="21"/>
       <c r="D16" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="21"/>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="21"/>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -17447,7 +17592,7 @@
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -17461,43 +17606,43 @@
     <row r="23" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
       <c r="D23" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="21"/>
       <c r="D24" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="21"/>
       <c r="D25" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="21"/>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="21"/>
       <c r="D27" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -17541,7 +17686,7 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -17555,43 +17700,43 @@
     <row r="32" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="21"/>
       <c r="D32" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="21"/>
       <c r="D33" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="21"/>
       <c r="D34" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B35" s="21"/>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B36" s="21"/>
       <c r="D36" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
